--- a/risk.xlsx
+++ b/risk.xlsx
@@ -1671,7 +1671,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="B158" t="s">
         <v>9</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="B159" t="s">
         <v>9</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="B160" t="s">
         <v>9</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="B161" t="s">
         <v>9</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="B162" t="s">
         <v>9</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="B163" t="s">
         <v>9</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="B164" t="s">
         <v>9</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="B165" t="s">
         <v>9</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="B166" t="s">
         <v>9</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="B167" t="s">
         <v>9</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="B168" t="s">
         <v>9</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="B169" t="s">
         <v>9</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="B170" t="s">
         <v>9</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="B171" t="s">
         <v>9</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="B172" t="s">
         <v>9</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="B173" t="s">
         <v>9</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="B174" t="s">
         <v>9</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="B175" t="s">
         <v>9</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="B176" t="s">
         <v>9</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="B177" t="s">
         <v>9</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="B178" t="s">
         <v>9</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="B179" t="s">
         <v>9</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="B180" t="s">
         <v>9</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="B181" t="s">
         <v>9</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="B182" t="s">
         <v>9</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>9</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="B184" t="s">
         <v>9</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="B185" t="s">
         <v>9</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="B186" t="s">
         <v>9</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="B187" t="s">
         <v>9</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="B188" t="s">
         <v>9</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="B189" t="s">
         <v>9</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="B190" t="s">
         <v>9</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="B191" t="s">
         <v>9</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B192" t="s">
         <v>9</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B193" t="s">
         <v>9</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="B194" t="s">
         <v>9</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="B195" t="s">
         <v>9</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="B196" t="s">
         <v>9</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="B197" t="s">
         <v>9</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="B198" t="s">
         <v>9</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="B199" t="s">
         <v>9</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="B200" t="s">
         <v>9</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="B201" t="s">
         <v>9</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="B202" t="s">
         <v>9</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="1">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="B203" t="s">
         <v>9</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="1">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="B204" t="s">
         <v>9</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="1">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="B205" t="s">
         <v>9</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="1">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="B206" t="s">
         <v>9</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="1">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="B207" t="s">
         <v>9</v>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="1">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="B208" t="s">
         <v>9</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="1">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B209" t="s">
         <v>9</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="B210" t="s">
         <v>10</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="1">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="B211" t="s">
         <v>10</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="1">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="B212" t="s">
         <v>10</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="B213" t="s">
         <v>10</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="1">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="B214" t="s">
         <v>10</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="1">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="B215" t="s">
         <v>10</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="1">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="B216" t="s">
         <v>10</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="1">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="B217" t="s">
         <v>10</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="1">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="B218" t="s">
         <v>10</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="1">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="B219" t="s">
         <v>10</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="1">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="B220" t="s">
         <v>10</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="B221" t="s">
         <v>10</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="B222" t="s">
         <v>10</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="B223" t="s">
         <v>10</v>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="B224" t="s">
         <v>10</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="B225" t="s">
         <v>10</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="B226" t="s">
         <v>10</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="B227" t="s">
         <v>10</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="B228" t="s">
         <v>10</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="1">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="B229" t="s">
         <v>10</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="1">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="B230" t="s">
         <v>10</v>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="1">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c r="B231" t="s">
         <v>10</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="B232" t="s">
         <v>10</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="1">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="B233" t="s">
         <v>10</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="B234" t="s">
         <v>10</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="1">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>10</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="1">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="B236" t="s">
         <v>10</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="1">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="B237" t="s">
         <v>10</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="1">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="B238" t="s">
         <v>10</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="B239" t="s">
         <v>10</v>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B240" t="s">
         <v>10</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="1">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="B241" t="s">
         <v>10</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="1">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="B242" t="s">
         <v>10</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="1">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="B243" t="s">
         <v>10</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="1">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="B244" t="s">
         <v>10</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="B245" t="s">
         <v>10</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="1">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="B246" t="s">
         <v>10</v>
@@ -6110,7 +6110,7 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="B247" t="s">
         <v>10</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="1">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="B248" t="s">
         <v>10</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="1">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="B249" t="s">
         <v>10</v>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="1">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="B250" t="s">
         <v>10</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="1">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="B251" t="s">
         <v>10</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="B252" t="s">
         <v>10</v>
@@ -6248,7 +6248,7 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="1">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="B253" t="s">
         <v>10</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="B254" t="s">
         <v>10</v>
@@ -6294,7 +6294,7 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1">
-        <v>6</v>
+        <v>214</v>
       </c>
       <c r="B255" t="s">
         <v>10</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1">
-        <v>5</v>
+        <v>213</v>
       </c>
       <c r="B256" t="s">
         <v>10</v>
@@ -6340,7 +6340,7 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="B257" t="s">
         <v>10</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="1">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="B258" t="s">
         <v>10</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="1">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="B259" t="s">
         <v>10</v>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="1">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="B260" t="s">
         <v>10</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="1">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B261" t="s">
         <v>10</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="1">
-        <v>51</v>
+        <v>311</v>
       </c>
       <c r="B262" t="s">
         <v>11</v>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="1">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="B263" t="s">
         <v>11</v>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="1">
-        <v>49</v>
+        <v>309</v>
       </c>
       <c r="B264" t="s">
         <v>11</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="1">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="B265" t="s">
         <v>11</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="1">
-        <v>47</v>
+        <v>307</v>
       </c>
       <c r="B266" t="s">
         <v>11</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="1">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="B267" t="s">
         <v>11</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="1">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="B268" t="s">
         <v>11</v>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="1">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="B269" t="s">
         <v>11</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="1">
-        <v>43</v>
+        <v>303</v>
       </c>
       <c r="B270" t="s">
         <v>11</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="1">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="B271" t="s">
         <v>11</v>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="1">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="B272" t="s">
         <v>11</v>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="1">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="B273" t="s">
         <v>11</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="1">
-        <v>39</v>
+        <v>299</v>
       </c>
       <c r="B274" t="s">
         <v>11</v>
@@ -6754,7 +6754,7 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="1">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="B275" t="s">
         <v>11</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="1">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="B276" t="s">
         <v>11</v>
@@ -6800,7 +6800,7 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="1">
-        <v>36</v>
+        <v>296</v>
       </c>
       <c r="B277" t="s">
         <v>11</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="1">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="B278" t="s">
         <v>11</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="1">
-        <v>34</v>
+        <v>294</v>
       </c>
       <c r="B279" t="s">
         <v>11</v>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="1">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="B280" t="s">
         <v>11</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="1">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="B281" t="s">
         <v>11</v>
@@ -6915,7 +6915,7 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="1">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="B282" t="s">
         <v>11</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="1">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="B283" t="s">
         <v>11</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="1">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="B284" t="s">
         <v>11</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="1">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="B285" t="s">
         <v>11</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="1">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="B286" t="s">
         <v>11</v>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="1">
-        <v>26</v>
+        <v>286</v>
       </c>
       <c r="B287" t="s">
         <v>11</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="1">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="B288" t="s">
         <v>11</v>
@@ -7076,7 +7076,7 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="1">
-        <v>24</v>
+        <v>284</v>
       </c>
       <c r="B289" t="s">
         <v>11</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="1">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="B290" t="s">
         <v>11</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="1">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="B291" t="s">
         <v>11</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="1">
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="B292" t="s">
         <v>11</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="1">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="B293" t="s">
         <v>11</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="1">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="B294" t="s">
         <v>11</v>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="1">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="B295" t="s">
         <v>11</v>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="1">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="B296" t="s">
         <v>11</v>
@@ -7260,7 +7260,7 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="1">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="B297" t="s">
         <v>11</v>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="1">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="B298" t="s">
         <v>11</v>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="1">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="B299" t="s">
         <v>11</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="1">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="B300" t="s">
         <v>11</v>
@@ -7352,7 +7352,7 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="1">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="B301" t="s">
         <v>11</v>
@@ -7375,7 +7375,7 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="1">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="B302" t="s">
         <v>11</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="1">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="B303" t="s">
         <v>11</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="1">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="B304" t="s">
         <v>11</v>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="1">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="B305" t="s">
         <v>11</v>
@@ -7467,7 +7467,7 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="1">
-        <v>7</v>
+        <v>267</v>
       </c>
       <c r="B306" t="s">
         <v>11</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="1">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="B307" t="s">
         <v>11</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="1">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="B308" t="s">
         <v>11</v>
@@ -7536,7 +7536,7 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="1">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="B309" t="s">
         <v>11</v>
@@ -7559,7 +7559,7 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="1">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="B310" t="s">
         <v>11</v>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="1">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="B311" t="s">
         <v>11</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="1">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="B312" t="s">
         <v>11</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="1">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="B313" t="s">
         <v>11</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="1">
-        <v>51</v>
+        <v>363</v>
       </c>
       <c r="B314" t="s">
         <v>12</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="1">
-        <v>50</v>
+        <v>362</v>
       </c>
       <c r="B315" t="s">
         <v>12</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="1">
-        <v>49</v>
+        <v>361</v>
       </c>
       <c r="B316" t="s">
         <v>12</v>
@@ -7720,7 +7720,7 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="1">
-        <v>48</v>
+        <v>360</v>
       </c>
       <c r="B317" t="s">
         <v>12</v>
@@ -7743,7 +7743,7 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="1">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="B318" t="s">
         <v>12</v>
@@ -7766,7 +7766,7 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="1">
-        <v>46</v>
+        <v>358</v>
       </c>
       <c r="B319" t="s">
         <v>12</v>
@@ -7789,7 +7789,7 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="1">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="B320" t="s">
         <v>12</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="1">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="B321" t="s">
         <v>12</v>
@@ -7835,7 +7835,7 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="1">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="B322" t="s">
         <v>12</v>
@@ -7858,7 +7858,7 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="1">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="B323" t="s">
         <v>12</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="1">
-        <v>41</v>
+        <v>353</v>
       </c>
       <c r="B324" t="s">
         <v>12</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="1">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="B325" t="s">
         <v>12</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="1">
-        <v>39</v>
+        <v>351</v>
       </c>
       <c r="B326" t="s">
         <v>12</v>
@@ -7950,7 +7950,7 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="1">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="B327" t="s">
         <v>12</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="1">
-        <v>37</v>
+        <v>349</v>
       </c>
       <c r="B328" t="s">
         <v>12</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="1">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="B329" t="s">
         <v>12</v>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="1">
-        <v>35</v>
+        <v>347</v>
       </c>
       <c r="B330" t="s">
         <v>12</v>
@@ -8042,7 +8042,7 @@
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="1">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="B331" t="s">
         <v>12</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="1">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="B332" t="s">
         <v>12</v>
@@ -8088,7 +8088,7 @@
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="1">
-        <v>32</v>
+        <v>344</v>
       </c>
       <c r="B333" t="s">
         <v>12</v>
@@ -8111,7 +8111,7 @@
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="1">
-        <v>31</v>
+        <v>343</v>
       </c>
       <c r="B334" t="s">
         <v>12</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="1">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="B335" t="s">
         <v>12</v>
@@ -8157,7 +8157,7 @@
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="1">
-        <v>29</v>
+        <v>341</v>
       </c>
       <c r="B336" t="s">
         <v>12</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="1">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="B337" t="s">
         <v>12</v>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="1">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="B338" t="s">
         <v>12</v>
@@ -8226,7 +8226,7 @@
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="1">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="B339" t="s">
         <v>12</v>
@@ -8249,7 +8249,7 @@
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="1">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="B340" t="s">
         <v>12</v>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="1">
-        <v>24</v>
+        <v>336</v>
       </c>
       <c r="B341" t="s">
         <v>12</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="1">
-        <v>23</v>
+        <v>335</v>
       </c>
       <c r="B342" t="s">
         <v>12</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="1">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="B343" t="s">
         <v>12</v>
@@ -8341,7 +8341,7 @@
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="1">
-        <v>21</v>
+        <v>333</v>
       </c>
       <c r="B344" t="s">
         <v>12</v>
@@ -8364,7 +8364,7 @@
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="1">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="B345" t="s">
         <v>12</v>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="1">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="B346" t="s">
         <v>12</v>
@@ -8410,7 +8410,7 @@
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="1">
-        <v>18</v>
+        <v>330</v>
       </c>
       <c r="B347" t="s">
         <v>12</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="1">
-        <v>17</v>
+        <v>329</v>
       </c>
       <c r="B348" t="s">
         <v>12</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="1">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="B349" t="s">
         <v>12</v>
@@ -8479,7 +8479,7 @@
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="1">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="B350" t="s">
         <v>12</v>
@@ -8502,7 +8502,7 @@
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="1">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="B351" t="s">
         <v>12</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="1">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="B352" t="s">
         <v>12</v>
@@ -8548,7 +8548,7 @@
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="1">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="B353" t="s">
         <v>12</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="1">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="B354" t="s">
         <v>12</v>
@@ -8594,7 +8594,7 @@
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="1">
-        <v>10</v>
+        <v>322</v>
       </c>
       <c r="B355" t="s">
         <v>12</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="1">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="B356" t="s">
         <v>12</v>
@@ -8640,7 +8640,7 @@
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="1">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="B357" t="s">
         <v>12</v>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="1">
-        <v>7</v>
+        <v>319</v>
       </c>
       <c r="B358" t="s">
         <v>12</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="1">
-        <v>6</v>
+        <v>318</v>
       </c>
       <c r="B359" t="s">
         <v>12</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="1">
-        <v>5</v>
+        <v>317</v>
       </c>
       <c r="B360" t="s">
         <v>12</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="1">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="B361" t="s">
         <v>12</v>
@@ -8755,7 +8755,7 @@
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="1">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="B362" t="s">
         <v>12</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="1">
-        <v>2</v>
+        <v>314</v>
       </c>
       <c r="B363" t="s">
         <v>12</v>
@@ -8801,7 +8801,7 @@
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="1">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="B364" t="s">
         <v>12</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="1">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="B365" t="s">
         <v>12</v>
@@ -8847,7 +8847,7 @@
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="1">
-        <v>51</v>
+        <v>415</v>
       </c>
       <c r="B366" t="s">
         <v>13</v>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="1">
-        <v>50</v>
+        <v>414</v>
       </c>
       <c r="B367" t="s">
         <v>13</v>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="1">
-        <v>49</v>
+        <v>413</v>
       </c>
       <c r="B368" t="s">
         <v>13</v>
@@ -8916,7 +8916,7 @@
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="1">
-        <v>48</v>
+        <v>412</v>
       </c>
       <c r="B369" t="s">
         <v>13</v>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="1">
-        <v>47</v>
+        <v>411</v>
       </c>
       <c r="B370" t="s">
         <v>13</v>
@@ -8962,7 +8962,7 @@
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="1">
-        <v>46</v>
+        <v>410</v>
       </c>
       <c r="B371" t="s">
         <v>13</v>
@@ -8985,7 +8985,7 @@
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="1">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="B372" t="s">
         <v>13</v>
@@ -9008,7 +9008,7 @@
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="1">
-        <v>44</v>
+        <v>408</v>
       </c>
       <c r="B373" t="s">
         <v>13</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="1">
-        <v>43</v>
+        <v>407</v>
       </c>
       <c r="B374" t="s">
         <v>13</v>
@@ -9054,7 +9054,7 @@
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="1">
-        <v>42</v>
+        <v>406</v>
       </c>
       <c r="B375" t="s">
         <v>13</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="376" spans="1:7">
       <c r="A376" s="1">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="B376" t="s">
         <v>13</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="1">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="B377" t="s">
         <v>13</v>
@@ -9123,7 +9123,7 @@
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="1">
-        <v>39</v>
+        <v>403</v>
       </c>
       <c r="B378" t="s">
         <v>13</v>
@@ -9146,7 +9146,7 @@
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="1">
-        <v>38</v>
+        <v>402</v>
       </c>
       <c r="B379" t="s">
         <v>13</v>
@@ -9169,7 +9169,7 @@
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="1">
-        <v>37</v>
+        <v>401</v>
       </c>
       <c r="B380" t="s">
         <v>13</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="1">
-        <v>36</v>
+        <v>400</v>
       </c>
       <c r="B381" t="s">
         <v>13</v>
@@ -9215,7 +9215,7 @@
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="1">
-        <v>35</v>
+        <v>399</v>
       </c>
       <c r="B382" t="s">
         <v>13</v>
@@ -9238,7 +9238,7 @@
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="1">
-        <v>34</v>
+        <v>398</v>
       </c>
       <c r="B383" t="s">
         <v>13</v>
@@ -9261,7 +9261,7 @@
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="1">
-        <v>33</v>
+        <v>397</v>
       </c>
       <c r="B384" t="s">
         <v>13</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="1">
-        <v>32</v>
+        <v>396</v>
       </c>
       <c r="B385" t="s">
         <v>13</v>
@@ -9307,7 +9307,7 @@
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="1">
-        <v>31</v>
+        <v>395</v>
       </c>
       <c r="B386" t="s">
         <v>13</v>
@@ -9330,7 +9330,7 @@
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="1">
-        <v>30</v>
+        <v>394</v>
       </c>
       <c r="B387" t="s">
         <v>13</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="1">
-        <v>29</v>
+        <v>393</v>
       </c>
       <c r="B388" t="s">
         <v>13</v>
@@ -9376,7 +9376,7 @@
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="1">
-        <v>28</v>
+        <v>392</v>
       </c>
       <c r="B389" t="s">
         <v>13</v>
@@ -9399,7 +9399,7 @@
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="1">
-        <v>27</v>
+        <v>391</v>
       </c>
       <c r="B390" t="s">
         <v>13</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="1">
-        <v>26</v>
+        <v>390</v>
       </c>
       <c r="B391" t="s">
         <v>13</v>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="1">
-        <v>25</v>
+        <v>389</v>
       </c>
       <c r="B392" t="s">
         <v>13</v>
@@ -9468,7 +9468,7 @@
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="1">
-        <v>24</v>
+        <v>388</v>
       </c>
       <c r="B393" t="s">
         <v>13</v>
@@ -9491,7 +9491,7 @@
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="1">
-        <v>23</v>
+        <v>387</v>
       </c>
       <c r="B394" t="s">
         <v>13</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="1">
-        <v>22</v>
+        <v>386</v>
       </c>
       <c r="B395" t="s">
         <v>13</v>
@@ -9537,7 +9537,7 @@
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="1">
-        <v>21</v>
+        <v>385</v>
       </c>
       <c r="B396" t="s">
         <v>13</v>
@@ -9560,7 +9560,7 @@
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="1">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="B397" t="s">
         <v>13</v>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="398" spans="1:7">
       <c r="A398" s="1">
-        <v>19</v>
+        <v>383</v>
       </c>
       <c r="B398" t="s">
         <v>13</v>
@@ -9606,7 +9606,7 @@
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="1">
-        <v>18</v>
+        <v>382</v>
       </c>
       <c r="B399" t="s">
         <v>13</v>
@@ -9629,7 +9629,7 @@
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="1">
-        <v>17</v>
+        <v>381</v>
       </c>
       <c r="B400" t="s">
         <v>13</v>
@@ -9652,7 +9652,7 @@
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="1">
-        <v>16</v>
+        <v>380</v>
       </c>
       <c r="B401" t="s">
         <v>13</v>
@@ -9675,7 +9675,7 @@
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="1">
-        <v>15</v>
+        <v>379</v>
       </c>
       <c r="B402" t="s">
         <v>13</v>
@@ -9698,7 +9698,7 @@
     </row>
     <row r="403" spans="1:7">
       <c r="A403" s="1">
-        <v>14</v>
+        <v>378</v>
       </c>
       <c r="B403" t="s">
         <v>13</v>
@@ -9721,7 +9721,7 @@
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="1">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="B404" t="s">
         <v>13</v>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="405" spans="1:7">
       <c r="A405" s="1">
-        <v>12</v>
+        <v>376</v>
       </c>
       <c r="B405" t="s">
         <v>13</v>
@@ -9767,7 +9767,7 @@
     </row>
     <row r="406" spans="1:7">
       <c r="A406" s="1">
-        <v>11</v>
+        <v>375</v>
       </c>
       <c r="B406" t="s">
         <v>13</v>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="407" spans="1:7">
       <c r="A407" s="1">
-        <v>10</v>
+        <v>374</v>
       </c>
       <c r="B407" t="s">
         <v>13</v>
@@ -9813,7 +9813,7 @@
     </row>
     <row r="408" spans="1:7">
       <c r="A408" s="1">
-        <v>9</v>
+        <v>373</v>
       </c>
       <c r="B408" t="s">
         <v>13</v>
@@ -9836,7 +9836,7 @@
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="1">
-        <v>8</v>
+        <v>372</v>
       </c>
       <c r="B409" t="s">
         <v>13</v>
@@ -9859,7 +9859,7 @@
     </row>
     <row r="410" spans="1:7">
       <c r="A410" s="1">
-        <v>7</v>
+        <v>371</v>
       </c>
       <c r="B410" t="s">
         <v>13</v>
@@ -9882,7 +9882,7 @@
     </row>
     <row r="411" spans="1:7">
       <c r="A411" s="1">
-        <v>6</v>
+        <v>370</v>
       </c>
       <c r="B411" t="s">
         <v>13</v>
@@ -9905,7 +9905,7 @@
     </row>
     <row r="412" spans="1:7">
       <c r="A412" s="1">
-        <v>5</v>
+        <v>369</v>
       </c>
       <c r="B412" t="s">
         <v>13</v>
@@ -9928,7 +9928,7 @@
     </row>
     <row r="413" spans="1:7">
       <c r="A413" s="1">
-        <v>4</v>
+        <v>368</v>
       </c>
       <c r="B413" t="s">
         <v>13</v>
@@ -9951,7 +9951,7 @@
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="1">
-        <v>3</v>
+        <v>367</v>
       </c>
       <c r="B414" t="s">
         <v>13</v>
@@ -9974,7 +9974,7 @@
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="1">
-        <v>2</v>
+        <v>366</v>
       </c>
       <c r="B415" t="s">
         <v>13</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="1">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="B416" t="s">
         <v>13</v>
@@ -10020,7 +10020,7 @@
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="1">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="B417" t="s">
         <v>13</v>
@@ -10043,7 +10043,7 @@
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="1">
-        <v>51</v>
+        <v>467</v>
       </c>
       <c r="B418" t="s">
         <v>14</v>
@@ -10066,7 +10066,7 @@
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="1">
-        <v>50</v>
+        <v>466</v>
       </c>
       <c r="B419" t="s">
         <v>14</v>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="1">
-        <v>49</v>
+        <v>465</v>
       </c>
       <c r="B420" t="s">
         <v>14</v>
@@ -10112,7 +10112,7 @@
     </row>
     <row r="421" spans="1:7">
       <c r="A421" s="1">
-        <v>48</v>
+        <v>464</v>
       </c>
       <c r="B421" t="s">
         <v>14</v>
@@ -10135,7 +10135,7 @@
     </row>
     <row r="422" spans="1:7">
       <c r="A422" s="1">
-        <v>47</v>
+        <v>463</v>
       </c>
       <c r="B422" t="s">
         <v>14</v>
@@ -10158,7 +10158,7 @@
     </row>
     <row r="423" spans="1:7">
       <c r="A423" s="1">
-        <v>46</v>
+        <v>462</v>
       </c>
       <c r="B423" t="s">
         <v>14</v>
@@ -10181,7 +10181,7 @@
     </row>
     <row r="424" spans="1:7">
       <c r="A424" s="1">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="B424" t="s">
         <v>14</v>
@@ -10204,7 +10204,7 @@
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="1">
-        <v>44</v>
+        <v>460</v>
       </c>
       <c r="B425" t="s">
         <v>14</v>
@@ -10227,7 +10227,7 @@
     </row>
     <row r="426" spans="1:7">
       <c r="A426" s="1">
-        <v>43</v>
+        <v>459</v>
       </c>
       <c r="B426" t="s">
         <v>14</v>
@@ -10250,7 +10250,7 @@
     </row>
     <row r="427" spans="1:7">
       <c r="A427" s="1">
-        <v>42</v>
+        <v>458</v>
       </c>
       <c r="B427" t="s">
         <v>14</v>
@@ -10273,7 +10273,7 @@
     </row>
     <row r="428" spans="1:7">
       <c r="A428" s="1">
-        <v>41</v>
+        <v>457</v>
       </c>
       <c r="B428" t="s">
         <v>14</v>
@@ -10296,7 +10296,7 @@
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="1">
-        <v>40</v>
+        <v>456</v>
       </c>
       <c r="B429" t="s">
         <v>14</v>
@@ -10319,7 +10319,7 @@
     </row>
     <row r="430" spans="1:7">
       <c r="A430" s="1">
-        <v>39</v>
+        <v>455</v>
       </c>
       <c r="B430" t="s">
         <v>14</v>
@@ -10342,7 +10342,7 @@
     </row>
     <row r="431" spans="1:7">
       <c r="A431" s="1">
-        <v>38</v>
+        <v>454</v>
       </c>
       <c r="B431" t="s">
         <v>14</v>
@@ -10365,7 +10365,7 @@
     </row>
     <row r="432" spans="1:7">
       <c r="A432" s="1">
-        <v>37</v>
+        <v>453</v>
       </c>
       <c r="B432" t="s">
         <v>14</v>
@@ -10388,7 +10388,7 @@
     </row>
     <row r="433" spans="1:7">
       <c r="A433" s="1">
-        <v>36</v>
+        <v>452</v>
       </c>
       <c r="B433" t="s">
         <v>14</v>
@@ -10411,7 +10411,7 @@
     </row>
     <row r="434" spans="1:7">
       <c r="A434" s="1">
-        <v>35</v>
+        <v>451</v>
       </c>
       <c r="B434" t="s">
         <v>14</v>
@@ -10434,7 +10434,7 @@
     </row>
     <row r="435" spans="1:7">
       <c r="A435" s="1">
-        <v>34</v>
+        <v>450</v>
       </c>
       <c r="B435" t="s">
         <v>14</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="1">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="B436" t="s">
         <v>14</v>
@@ -10480,7 +10480,7 @@
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="1">
-        <v>32</v>
+        <v>448</v>
       </c>
       <c r="B437" t="s">
         <v>14</v>
@@ -10503,7 +10503,7 @@
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="1">
-        <v>31</v>
+        <v>447</v>
       </c>
       <c r="B438" t="s">
         <v>14</v>
@@ -10526,7 +10526,7 @@
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="1">
-        <v>30</v>
+        <v>446</v>
       </c>
       <c r="B439" t="s">
         <v>14</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="1">
-        <v>29</v>
+        <v>445</v>
       </c>
       <c r="B440" t="s">
         <v>14</v>
@@ -10572,7 +10572,7 @@
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="1">
-        <v>28</v>
+        <v>444</v>
       </c>
       <c r="B441" t="s">
         <v>14</v>
@@ -10595,7 +10595,7 @@
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="1">
-        <v>27</v>
+        <v>443</v>
       </c>
       <c r="B442" t="s">
         <v>14</v>
@@ -10618,7 +10618,7 @@
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="1">
-        <v>26</v>
+        <v>442</v>
       </c>
       <c r="B443" t="s">
         <v>14</v>
@@ -10641,7 +10641,7 @@
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="1">
-        <v>25</v>
+        <v>441</v>
       </c>
       <c r="B444" t="s">
         <v>14</v>
@@ -10664,7 +10664,7 @@
     </row>
     <row r="445" spans="1:7">
       <c r="A445" s="1">
-        <v>24</v>
+        <v>440</v>
       </c>
       <c r="B445" t="s">
         <v>14</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="1">
-        <v>23</v>
+        <v>439</v>
       </c>
       <c r="B446" t="s">
         <v>14</v>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="1">
-        <v>22</v>
+        <v>438</v>
       </c>
       <c r="B447" t="s">
         <v>14</v>
@@ -10733,7 +10733,7 @@
     </row>
     <row r="448" spans="1:7">
       <c r="A448" s="1">
-        <v>21</v>
+        <v>437</v>
       </c>
       <c r="B448" t="s">
         <v>14</v>
@@ -10756,7 +10756,7 @@
     </row>
     <row r="449" spans="1:7">
       <c r="A449" s="1">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="B449" t="s">
         <v>14</v>
@@ -10779,7 +10779,7 @@
     </row>
     <row r="450" spans="1:7">
       <c r="A450" s="1">
-        <v>19</v>
+        <v>435</v>
       </c>
       <c r="B450" t="s">
         <v>14</v>
@@ -10802,7 +10802,7 @@
     </row>
     <row r="451" spans="1:7">
       <c r="A451" s="1">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="B451" t="s">
         <v>14</v>
@@ -10825,7 +10825,7 @@
     </row>
     <row r="452" spans="1:7">
       <c r="A452" s="1">
-        <v>17</v>
+        <v>433</v>
       </c>
       <c r="B452" t="s">
         <v>14</v>
@@ -10848,7 +10848,7 @@
     </row>
     <row r="453" spans="1:7">
       <c r="A453" s="1">
-        <v>16</v>
+        <v>432</v>
       </c>
       <c r="B453" t="s">
         <v>14</v>
@@ -10871,7 +10871,7 @@
     </row>
     <row r="454" spans="1:7">
       <c r="A454" s="1">
-        <v>15</v>
+        <v>431</v>
       </c>
       <c r="B454" t="s">
         <v>14</v>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="455" spans="1:7">
       <c r="A455" s="1">
-        <v>14</v>
+        <v>430</v>
       </c>
       <c r="B455" t="s">
         <v>14</v>
@@ -10917,7 +10917,7 @@
     </row>
     <row r="456" spans="1:7">
       <c r="A456" s="1">
-        <v>13</v>
+        <v>429</v>
       </c>
       <c r="B456" t="s">
         <v>14</v>
@@ -10940,7 +10940,7 @@
     </row>
     <row r="457" spans="1:7">
       <c r="A457" s="1">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="B457" t="s">
         <v>14</v>
@@ -10963,7 +10963,7 @@
     </row>
     <row r="458" spans="1:7">
       <c r="A458" s="1">
-        <v>11</v>
+        <v>427</v>
       </c>
       <c r="B458" t="s">
         <v>14</v>
@@ -10986,7 +10986,7 @@
     </row>
     <row r="459" spans="1:7">
       <c r="A459" s="1">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="B459" t="s">
         <v>14</v>
@@ -11009,7 +11009,7 @@
     </row>
     <row r="460" spans="1:7">
       <c r="A460" s="1">
-        <v>9</v>
+        <v>425</v>
       </c>
       <c r="B460" t="s">
         <v>14</v>
@@ -11032,7 +11032,7 @@
     </row>
     <row r="461" spans="1:7">
       <c r="A461" s="1">
-        <v>8</v>
+        <v>424</v>
       </c>
       <c r="B461" t="s">
         <v>14</v>
@@ -11055,7 +11055,7 @@
     </row>
     <row r="462" spans="1:7">
       <c r="A462" s="1">
-        <v>7</v>
+        <v>423</v>
       </c>
       <c r="B462" t="s">
         <v>14</v>
@@ -11078,7 +11078,7 @@
     </row>
     <row r="463" spans="1:7">
       <c r="A463" s="1">
-        <v>6</v>
+        <v>422</v>
       </c>
       <c r="B463" t="s">
         <v>14</v>
@@ -11101,7 +11101,7 @@
     </row>
     <row r="464" spans="1:7">
       <c r="A464" s="1">
-        <v>5</v>
+        <v>421</v>
       </c>
       <c r="B464" t="s">
         <v>14</v>
@@ -11124,7 +11124,7 @@
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="1">
-        <v>4</v>
+        <v>420</v>
       </c>
       <c r="B465" t="s">
         <v>14</v>
@@ -11147,7 +11147,7 @@
     </row>
     <row r="466" spans="1:7">
       <c r="A466" s="1">
-        <v>3</v>
+        <v>419</v>
       </c>
       <c r="B466" t="s">
         <v>14</v>
@@ -11170,7 +11170,7 @@
     </row>
     <row r="467" spans="1:7">
       <c r="A467" s="1">
-        <v>2</v>
+        <v>418</v>
       </c>
       <c r="B467" t="s">
         <v>14</v>
@@ -11193,7 +11193,7 @@
     </row>
     <row r="468" spans="1:7">
       <c r="A468" s="1">
-        <v>1</v>
+        <v>417</v>
       </c>
       <c r="B468" t="s">
         <v>14</v>
@@ -11216,7 +11216,7 @@
     </row>
     <row r="469" spans="1:7">
       <c r="A469" s="1">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="B469" t="s">
         <v>14</v>
@@ -11239,7 +11239,7 @@
     </row>
     <row r="470" spans="1:7">
       <c r="A470" s="1">
-        <v>51</v>
+        <v>519</v>
       </c>
       <c r="B470" t="s">
         <v>15</v>
@@ -11262,7 +11262,7 @@
     </row>
     <row r="471" spans="1:7">
       <c r="A471" s="1">
-        <v>50</v>
+        <v>518</v>
       </c>
       <c r="B471" t="s">
         <v>15</v>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="472" spans="1:7">
       <c r="A472" s="1">
-        <v>49</v>
+        <v>517</v>
       </c>
       <c r="B472" t="s">
         <v>15</v>
@@ -11308,7 +11308,7 @@
     </row>
     <row r="473" spans="1:7">
       <c r="A473" s="1">
-        <v>48</v>
+        <v>516</v>
       </c>
       <c r="B473" t="s">
         <v>15</v>
@@ -11331,7 +11331,7 @@
     </row>
     <row r="474" spans="1:7">
       <c r="A474" s="1">
-        <v>47</v>
+        <v>515</v>
       </c>
       <c r="B474" t="s">
         <v>15</v>
@@ -11354,7 +11354,7 @@
     </row>
     <row r="475" spans="1:7">
       <c r="A475" s="1">
-        <v>46</v>
+        <v>514</v>
       </c>
       <c r="B475" t="s">
         <v>15</v>
@@ -11377,7 +11377,7 @@
     </row>
     <row r="476" spans="1:7">
       <c r="A476" s="1">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="B476" t="s">
         <v>15</v>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="477" spans="1:7">
       <c r="A477" s="1">
-        <v>44</v>
+        <v>512</v>
       </c>
       <c r="B477" t="s">
         <v>15</v>
@@ -11423,7 +11423,7 @@
     </row>
     <row r="478" spans="1:7">
       <c r="A478" s="1">
-        <v>43</v>
+        <v>511</v>
       </c>
       <c r="B478" t="s">
         <v>15</v>
@@ -11446,7 +11446,7 @@
     </row>
     <row r="479" spans="1:7">
       <c r="A479" s="1">
-        <v>42</v>
+        <v>510</v>
       </c>
       <c r="B479" t="s">
         <v>15</v>
@@ -11469,7 +11469,7 @@
     </row>
     <row r="480" spans="1:7">
       <c r="A480" s="1">
-        <v>41</v>
+        <v>509</v>
       </c>
       <c r="B480" t="s">
         <v>15</v>
@@ -11492,7 +11492,7 @@
     </row>
     <row r="481" spans="1:7">
       <c r="A481" s="1">
-        <v>40</v>
+        <v>508</v>
       </c>
       <c r="B481" t="s">
         <v>15</v>
@@ -11515,7 +11515,7 @@
     </row>
     <row r="482" spans="1:7">
       <c r="A482" s="1">
-        <v>39</v>
+        <v>507</v>
       </c>
       <c r="B482" t="s">
         <v>15</v>
@@ -11538,7 +11538,7 @@
     </row>
     <row r="483" spans="1:7">
       <c r="A483" s="1">
-        <v>38</v>
+        <v>506</v>
       </c>
       <c r="B483" t="s">
         <v>15</v>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="484" spans="1:7">
       <c r="A484" s="1">
-        <v>37</v>
+        <v>505</v>
       </c>
       <c r="B484" t="s">
         <v>15</v>
@@ -11584,7 +11584,7 @@
     </row>
     <row r="485" spans="1:7">
       <c r="A485" s="1">
-        <v>36</v>
+        <v>504</v>
       </c>
       <c r="B485" t="s">
         <v>15</v>
@@ -11607,7 +11607,7 @@
     </row>
     <row r="486" spans="1:7">
       <c r="A486" s="1">
-        <v>35</v>
+        <v>503</v>
       </c>
       <c r="B486" t="s">
         <v>15</v>
@@ -11630,7 +11630,7 @@
     </row>
     <row r="487" spans="1:7">
       <c r="A487" s="1">
-        <v>34</v>
+        <v>502</v>
       </c>
       <c r="B487" t="s">
         <v>15</v>
@@ -11653,7 +11653,7 @@
     </row>
     <row r="488" spans="1:7">
       <c r="A488" s="1">
-        <v>33</v>
+        <v>501</v>
       </c>
       <c r="B488" t="s">
         <v>15</v>
@@ -11676,7 +11676,7 @@
     </row>
     <row r="489" spans="1:7">
       <c r="A489" s="1">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="B489" t="s">
         <v>15</v>
@@ -11699,7 +11699,7 @@
     </row>
     <row r="490" spans="1:7">
       <c r="A490" s="1">
-        <v>31</v>
+        <v>499</v>
       </c>
       <c r="B490" t="s">
         <v>15</v>
@@ -11722,7 +11722,7 @@
     </row>
     <row r="491" spans="1:7">
       <c r="A491" s="1">
-        <v>30</v>
+        <v>498</v>
       </c>
       <c r="B491" t="s">
         <v>15</v>
@@ -11745,7 +11745,7 @@
     </row>
     <row r="492" spans="1:7">
       <c r="A492" s="1">
-        <v>29</v>
+        <v>497</v>
       </c>
       <c r="B492" t="s">
         <v>15</v>
@@ -11768,7 +11768,7 @@
     </row>
     <row r="493" spans="1:7">
       <c r="A493" s="1">
-        <v>28</v>
+        <v>496</v>
       </c>
       <c r="B493" t="s">
         <v>15</v>
@@ -11791,7 +11791,7 @@
     </row>
     <row r="494" spans="1:7">
       <c r="A494" s="1">
-        <v>27</v>
+        <v>495</v>
       </c>
       <c r="B494" t="s">
         <v>15</v>
@@ -11814,7 +11814,7 @@
     </row>
     <row r="495" spans="1:7">
       <c r="A495" s="1">
-        <v>26</v>
+        <v>494</v>
       </c>
       <c r="B495" t="s">
         <v>15</v>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="496" spans="1:7">
       <c r="A496" s="1">
-        <v>25</v>
+        <v>493</v>
       </c>
       <c r="B496" t="s">
         <v>15</v>
@@ -11860,7 +11860,7 @@
     </row>
     <row r="497" spans="1:7">
       <c r="A497" s="1">
-        <v>24</v>
+        <v>492</v>
       </c>
       <c r="B497" t="s">
         <v>15</v>
@@ -11883,7 +11883,7 @@
     </row>
     <row r="498" spans="1:7">
       <c r="A498" s="1">
-        <v>23</v>
+        <v>491</v>
       </c>
       <c r="B498" t="s">
         <v>15</v>
@@ -11906,7 +11906,7 @@
     </row>
     <row r="499" spans="1:7">
       <c r="A499" s="1">
-        <v>22</v>
+        <v>490</v>
       </c>
       <c r="B499" t="s">
         <v>15</v>
@@ -11929,7 +11929,7 @@
     </row>
     <row r="500" spans="1:7">
       <c r="A500" s="1">
-        <v>21</v>
+        <v>489</v>
       </c>
       <c r="B500" t="s">
         <v>15</v>
@@ -11952,7 +11952,7 @@
     </row>
     <row r="501" spans="1:7">
       <c r="A501" s="1">
-        <v>20</v>
+        <v>488</v>
       </c>
       <c r="B501" t="s">
         <v>15</v>
@@ -11975,7 +11975,7 @@
     </row>
     <row r="502" spans="1:7">
       <c r="A502" s="1">
-        <v>19</v>
+        <v>487</v>
       </c>
       <c r="B502" t="s">
         <v>15</v>
@@ -11998,7 +11998,7 @@
     </row>
     <row r="503" spans="1:7">
       <c r="A503" s="1">
-        <v>18</v>
+        <v>486</v>
       </c>
       <c r="B503" t="s">
         <v>15</v>
@@ -12021,7 +12021,7 @@
     </row>
     <row r="504" spans="1:7">
       <c r="A504" s="1">
-        <v>17</v>
+        <v>485</v>
       </c>
       <c r="B504" t="s">
         <v>15</v>
@@ -12044,7 +12044,7 @@
     </row>
     <row r="505" spans="1:7">
       <c r="A505" s="1">
-        <v>16</v>
+        <v>484</v>
       </c>
       <c r="B505" t="s">
         <v>15</v>
@@ -12067,7 +12067,7 @@
     </row>
     <row r="506" spans="1:7">
       <c r="A506" s="1">
-        <v>15</v>
+        <v>483</v>
       </c>
       <c r="B506" t="s">
         <v>15</v>
@@ -12090,7 +12090,7 @@
     </row>
     <row r="507" spans="1:7">
       <c r="A507" s="1">
-        <v>14</v>
+        <v>482</v>
       </c>
       <c r="B507" t="s">
         <v>15</v>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="508" spans="1:7">
       <c r="A508" s="1">
-        <v>13</v>
+        <v>481</v>
       </c>
       <c r="B508" t="s">
         <v>15</v>
@@ -12136,7 +12136,7 @@
     </row>
     <row r="509" spans="1:7">
       <c r="A509" s="1">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="B509" t="s">
         <v>15</v>
@@ -12159,7 +12159,7 @@
     </row>
     <row r="510" spans="1:7">
       <c r="A510" s="1">
-        <v>11</v>
+        <v>479</v>
       </c>
       <c r="B510" t="s">
         <v>15</v>
@@ -12182,7 +12182,7 @@
     </row>
     <row r="511" spans="1:7">
       <c r="A511" s="1">
-        <v>10</v>
+        <v>478</v>
       </c>
       <c r="B511" t="s">
         <v>15</v>
@@ -12205,7 +12205,7 @@
     </row>
     <row r="512" spans="1:7">
       <c r="A512" s="1">
-        <v>9</v>
+        <v>477</v>
       </c>
       <c r="B512" t="s">
         <v>15</v>
@@ -12228,7 +12228,7 @@
     </row>
     <row r="513" spans="1:7">
       <c r="A513" s="1">
-        <v>8</v>
+        <v>476</v>
       </c>
       <c r="B513" t="s">
         <v>15</v>
@@ -12251,7 +12251,7 @@
     </row>
     <row r="514" spans="1:7">
       <c r="A514" s="1">
-        <v>7</v>
+        <v>475</v>
       </c>
       <c r="B514" t="s">
         <v>15</v>
@@ -12274,7 +12274,7 @@
     </row>
     <row r="515" spans="1:7">
       <c r="A515" s="1">
-        <v>6</v>
+        <v>474</v>
       </c>
       <c r="B515" t="s">
         <v>15</v>
@@ -12297,7 +12297,7 @@
     </row>
     <row r="516" spans="1:7">
       <c r="A516" s="1">
-        <v>5</v>
+        <v>473</v>
       </c>
       <c r="B516" t="s">
         <v>15</v>
@@ -12320,7 +12320,7 @@
     </row>
     <row r="517" spans="1:7">
       <c r="A517" s="1">
-        <v>4</v>
+        <v>472</v>
       </c>
       <c r="B517" t="s">
         <v>15</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="518" spans="1:7">
       <c r="A518" s="1">
-        <v>3</v>
+        <v>471</v>
       </c>
       <c r="B518" t="s">
         <v>15</v>
@@ -12366,7 +12366,7 @@
     </row>
     <row r="519" spans="1:7">
       <c r="A519" s="1">
-        <v>2</v>
+        <v>470</v>
       </c>
       <c r="B519" t="s">
         <v>15</v>
@@ -12389,7 +12389,7 @@
     </row>
     <row r="520" spans="1:7">
       <c r="A520" s="1">
-        <v>1</v>
+        <v>469</v>
       </c>
       <c r="B520" t="s">
         <v>15</v>
@@ -12412,7 +12412,7 @@
     </row>
     <row r="521" spans="1:7">
       <c r="A521" s="1">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="B521" t="s">
         <v>15</v>
@@ -12435,7 +12435,7 @@
     </row>
     <row r="522" spans="1:7">
       <c r="A522" s="1">
-        <v>51</v>
+        <v>571</v>
       </c>
       <c r="B522" t="s">
         <v>16</v>
@@ -12458,7 +12458,7 @@
     </row>
     <row r="523" spans="1:7">
       <c r="A523" s="1">
-        <v>50</v>
+        <v>570</v>
       </c>
       <c r="B523" t="s">
         <v>16</v>
@@ -12481,7 +12481,7 @@
     </row>
     <row r="524" spans="1:7">
       <c r="A524" s="1">
-        <v>49</v>
+        <v>569</v>
       </c>
       <c r="B524" t="s">
         <v>16</v>
@@ -12504,7 +12504,7 @@
     </row>
     <row r="525" spans="1:7">
       <c r="A525" s="1">
-        <v>48</v>
+        <v>568</v>
       </c>
       <c r="B525" t="s">
         <v>16</v>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="526" spans="1:7">
       <c r="A526" s="1">
-        <v>47</v>
+        <v>567</v>
       </c>
       <c r="B526" t="s">
         <v>16</v>
@@ -12550,7 +12550,7 @@
     </row>
     <row r="527" spans="1:7">
       <c r="A527" s="1">
-        <v>46</v>
+        <v>566</v>
       </c>
       <c r="B527" t="s">
         <v>16</v>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="528" spans="1:7">
       <c r="A528" s="1">
-        <v>45</v>
+        <v>565</v>
       </c>
       <c r="B528" t="s">
         <v>16</v>
@@ -12596,7 +12596,7 @@
     </row>
     <row r="529" spans="1:7">
       <c r="A529" s="1">
-        <v>44</v>
+        <v>564</v>
       </c>
       <c r="B529" t="s">
         <v>16</v>
@@ -12619,7 +12619,7 @@
     </row>
     <row r="530" spans="1:7">
       <c r="A530" s="1">
-        <v>43</v>
+        <v>563</v>
       </c>
       <c r="B530" t="s">
         <v>16</v>
@@ -12642,7 +12642,7 @@
     </row>
     <row r="531" spans="1:7">
       <c r="A531" s="1">
-        <v>42</v>
+        <v>562</v>
       </c>
       <c r="B531" t="s">
         <v>16</v>
@@ -12665,7 +12665,7 @@
     </row>
     <row r="532" spans="1:7">
       <c r="A532" s="1">
-        <v>41</v>
+        <v>561</v>
       </c>
       <c r="B532" t="s">
         <v>16</v>
@@ -12688,7 +12688,7 @@
     </row>
     <row r="533" spans="1:7">
       <c r="A533" s="1">
-        <v>40</v>
+        <v>560</v>
       </c>
       <c r="B533" t="s">
         <v>16</v>
@@ -12711,7 +12711,7 @@
     </row>
     <row r="534" spans="1:7">
       <c r="A534" s="1">
-        <v>39</v>
+        <v>559</v>
       </c>
       <c r="B534" t="s">
         <v>16</v>
@@ -12734,7 +12734,7 @@
     </row>
     <row r="535" spans="1:7">
       <c r="A535" s="1">
-        <v>38</v>
+        <v>558</v>
       </c>
       <c r="B535" t="s">
         <v>16</v>
@@ -12757,7 +12757,7 @@
     </row>
     <row r="536" spans="1:7">
       <c r="A536" s="1">
-        <v>37</v>
+        <v>557</v>
       </c>
       <c r="B536" t="s">
         <v>16</v>
@@ -12780,7 +12780,7 @@
     </row>
     <row r="537" spans="1:7">
       <c r="A537" s="1">
-        <v>36</v>
+        <v>556</v>
       </c>
       <c r="B537" t="s">
         <v>16</v>
@@ -12803,7 +12803,7 @@
     </row>
     <row r="538" spans="1:7">
       <c r="A538" s="1">
-        <v>35</v>
+        <v>555</v>
       </c>
       <c r="B538" t="s">
         <v>16</v>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="539" spans="1:7">
       <c r="A539" s="1">
-        <v>34</v>
+        <v>554</v>
       </c>
       <c r="B539" t="s">
         <v>16</v>
@@ -12849,7 +12849,7 @@
     </row>
     <row r="540" spans="1:7">
       <c r="A540" s="1">
-        <v>33</v>
+        <v>553</v>
       </c>
       <c r="B540" t="s">
         <v>16</v>
@@ -12872,7 +12872,7 @@
     </row>
     <row r="541" spans="1:7">
       <c r="A541" s="1">
-        <v>32</v>
+        <v>552</v>
       </c>
       <c r="B541" t="s">
         <v>16</v>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="542" spans="1:7">
       <c r="A542" s="1">
-        <v>31</v>
+        <v>551</v>
       </c>
       <c r="B542" t="s">
         <v>16</v>
@@ -12918,7 +12918,7 @@
     </row>
     <row r="543" spans="1:7">
       <c r="A543" s="1">
-        <v>30</v>
+        <v>550</v>
       </c>
       <c r="B543" t="s">
         <v>16</v>
@@ -12941,7 +12941,7 @@
     </row>
     <row r="544" spans="1:7">
       <c r="A544" s="1">
-        <v>29</v>
+        <v>549</v>
       </c>
       <c r="B544" t="s">
         <v>16</v>
@@ -12964,7 +12964,7 @@
     </row>
     <row r="545" spans="1:7">
       <c r="A545" s="1">
-        <v>28</v>
+        <v>548</v>
       </c>
       <c r="B545" t="s">
         <v>16</v>
@@ -12987,7 +12987,7 @@
     </row>
     <row r="546" spans="1:7">
       <c r="A546" s="1">
-        <v>27</v>
+        <v>547</v>
       </c>
       <c r="B546" t="s">
         <v>16</v>
@@ -13010,7 +13010,7 @@
     </row>
     <row r="547" spans="1:7">
       <c r="A547" s="1">
-        <v>26</v>
+        <v>546</v>
       </c>
       <c r="B547" t="s">
         <v>16</v>
@@ -13033,7 +13033,7 @@
     </row>
     <row r="548" spans="1:7">
       <c r="A548" s="1">
-        <v>25</v>
+        <v>545</v>
       </c>
       <c r="B548" t="s">
         <v>16</v>
@@ -13056,7 +13056,7 @@
     </row>
     <row r="549" spans="1:7">
       <c r="A549" s="1">
-        <v>24</v>
+        <v>544</v>
       </c>
       <c r="B549" t="s">
         <v>16</v>
@@ -13079,7 +13079,7 @@
     </row>
     <row r="550" spans="1:7">
       <c r="A550" s="1">
-        <v>23</v>
+        <v>543</v>
       </c>
       <c r="B550" t="s">
         <v>16</v>
@@ -13102,7 +13102,7 @@
     </row>
     <row r="551" spans="1:7">
       <c r="A551" s="1">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="B551" t="s">
         <v>16</v>
@@ -13125,7 +13125,7 @@
     </row>
     <row r="552" spans="1:7">
       <c r="A552" s="1">
-        <v>21</v>
+        <v>541</v>
       </c>
       <c r="B552" t="s">
         <v>16</v>
@@ -13148,7 +13148,7 @@
     </row>
     <row r="553" spans="1:7">
       <c r="A553" s="1">
-        <v>20</v>
+        <v>540</v>
       </c>
       <c r="B553" t="s">
         <v>16</v>
@@ -13171,7 +13171,7 @@
     </row>
     <row r="554" spans="1:7">
       <c r="A554" s="1">
-        <v>19</v>
+        <v>539</v>
       </c>
       <c r="B554" t="s">
         <v>16</v>
@@ -13194,7 +13194,7 @@
     </row>
     <row r="555" spans="1:7">
       <c r="A555" s="1">
-        <v>18</v>
+        <v>538</v>
       </c>
       <c r="B555" t="s">
         <v>16</v>
@@ -13217,7 +13217,7 @@
     </row>
     <row r="556" spans="1:7">
       <c r="A556" s="1">
-        <v>17</v>
+        <v>537</v>
       </c>
       <c r="B556" t="s">
         <v>16</v>
@@ -13240,7 +13240,7 @@
     </row>
     <row r="557" spans="1:7">
       <c r="A557" s="1">
-        <v>16</v>
+        <v>536</v>
       </c>
       <c r="B557" t="s">
         <v>16</v>
@@ -13263,7 +13263,7 @@
     </row>
     <row r="558" spans="1:7">
       <c r="A558" s="1">
-        <v>15</v>
+        <v>535</v>
       </c>
       <c r="B558" t="s">
         <v>16</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="559" spans="1:7">
       <c r="A559" s="1">
-        <v>14</v>
+        <v>534</v>
       </c>
       <c r="B559" t="s">
         <v>16</v>
@@ -13309,7 +13309,7 @@
     </row>
     <row r="560" spans="1:7">
       <c r="A560" s="1">
-        <v>13</v>
+        <v>533</v>
       </c>
       <c r="B560" t="s">
         <v>16</v>
@@ -13332,7 +13332,7 @@
     </row>
     <row r="561" spans="1:7">
       <c r="A561" s="1">
-        <v>12</v>
+        <v>532</v>
       </c>
       <c r="B561" t="s">
         <v>16</v>
@@ -13355,7 +13355,7 @@
     </row>
     <row r="562" spans="1:7">
       <c r="A562" s="1">
-        <v>11</v>
+        <v>531</v>
       </c>
       <c r="B562" t="s">
         <v>16</v>
@@ -13378,7 +13378,7 @@
     </row>
     <row r="563" spans="1:7">
       <c r="A563" s="1">
-        <v>10</v>
+        <v>530</v>
       </c>
       <c r="B563" t="s">
         <v>16</v>
@@ -13401,7 +13401,7 @@
     </row>
     <row r="564" spans="1:7">
       <c r="A564" s="1">
-        <v>9</v>
+        <v>529</v>
       </c>
       <c r="B564" t="s">
         <v>16</v>
@@ -13424,7 +13424,7 @@
     </row>
     <row r="565" spans="1:7">
       <c r="A565" s="1">
-        <v>8</v>
+        <v>528</v>
       </c>
       <c r="B565" t="s">
         <v>16</v>
@@ -13447,7 +13447,7 @@
     </row>
     <row r="566" spans="1:7">
       <c r="A566" s="1">
-        <v>7</v>
+        <v>527</v>
       </c>
       <c r="B566" t="s">
         <v>16</v>
@@ -13470,7 +13470,7 @@
     </row>
     <row r="567" spans="1:7">
       <c r="A567" s="1">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="B567" t="s">
         <v>16</v>
@@ -13493,7 +13493,7 @@
     </row>
     <row r="568" spans="1:7">
       <c r="A568" s="1">
-        <v>5</v>
+        <v>525</v>
       </c>
       <c r="B568" t="s">
         <v>16</v>
@@ -13516,7 +13516,7 @@
     </row>
     <row r="569" spans="1:7">
       <c r="A569" s="1">
-        <v>4</v>
+        <v>524</v>
       </c>
       <c r="B569" t="s">
         <v>16</v>
@@ -13539,7 +13539,7 @@
     </row>
     <row r="570" spans="1:7">
       <c r="A570" s="1">
-        <v>3</v>
+        <v>523</v>
       </c>
       <c r="B570" t="s">
         <v>16</v>
@@ -13562,7 +13562,7 @@
     </row>
     <row r="571" spans="1:7">
       <c r="A571" s="1">
-        <v>2</v>
+        <v>522</v>
       </c>
       <c r="B571" t="s">
         <v>16</v>
@@ -13585,7 +13585,7 @@
     </row>
     <row r="572" spans="1:7">
       <c r="A572" s="1">
-        <v>1</v>
+        <v>521</v>
       </c>
       <c r="B572" t="s">
         <v>16</v>
@@ -13608,7 +13608,7 @@
     </row>
     <row r="573" spans="1:7">
       <c r="A573" s="1">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="B573" t="s">
         <v>16</v>
@@ -13631,7 +13631,7 @@
     </row>
     <row r="574" spans="1:7">
       <c r="A574" s="1">
-        <v>51</v>
+        <v>623</v>
       </c>
       <c r="B574" t="s">
         <v>17</v>
@@ -13654,7 +13654,7 @@
     </row>
     <row r="575" spans="1:7">
       <c r="A575" s="1">
-        <v>50</v>
+        <v>622</v>
       </c>
       <c r="B575" t="s">
         <v>17</v>
@@ -13677,7 +13677,7 @@
     </row>
     <row r="576" spans="1:7">
       <c r="A576" s="1">
-        <v>49</v>
+        <v>621</v>
       </c>
       <c r="B576" t="s">
         <v>17</v>
@@ -13700,7 +13700,7 @@
     </row>
     <row r="577" spans="1:7">
       <c r="A577" s="1">
-        <v>48</v>
+        <v>620</v>
       </c>
       <c r="B577" t="s">
         <v>17</v>
@@ -13723,7 +13723,7 @@
     </row>
     <row r="578" spans="1:7">
       <c r="A578" s="1">
-        <v>47</v>
+        <v>619</v>
       </c>
       <c r="B578" t="s">
         <v>17</v>
@@ -13746,7 +13746,7 @@
     </row>
     <row r="579" spans="1:7">
       <c r="A579" s="1">
-        <v>46</v>
+        <v>618</v>
       </c>
       <c r="B579" t="s">
         <v>17</v>
@@ -13769,7 +13769,7 @@
     </row>
     <row r="580" spans="1:7">
       <c r="A580" s="1">
-        <v>45</v>
+        <v>617</v>
       </c>
       <c r="B580" t="s">
         <v>17</v>
@@ -13792,7 +13792,7 @@
     </row>
     <row r="581" spans="1:7">
       <c r="A581" s="1">
-        <v>44</v>
+        <v>616</v>
       </c>
       <c r="B581" t="s">
         <v>17</v>
@@ -13815,7 +13815,7 @@
     </row>
     <row r="582" spans="1:7">
       <c r="A582" s="1">
-        <v>43</v>
+        <v>615</v>
       </c>
       <c r="B582" t="s">
         <v>17</v>
@@ -13838,7 +13838,7 @@
     </row>
     <row r="583" spans="1:7">
       <c r="A583" s="1">
-        <v>42</v>
+        <v>614</v>
       </c>
       <c r="B583" t="s">
         <v>17</v>
@@ -13861,7 +13861,7 @@
     </row>
     <row r="584" spans="1:7">
       <c r="A584" s="1">
-        <v>41</v>
+        <v>613</v>
       </c>
       <c r="B584" t="s">
         <v>17</v>
@@ -13884,7 +13884,7 @@
     </row>
     <row r="585" spans="1:7">
       <c r="A585" s="1">
-        <v>40</v>
+        <v>612</v>
       </c>
       <c r="B585" t="s">
         <v>17</v>
@@ -13907,7 +13907,7 @@
     </row>
     <row r="586" spans="1:7">
       <c r="A586" s="1">
-        <v>39</v>
+        <v>611</v>
       </c>
       <c r="B586" t="s">
         <v>17</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="587" spans="1:7">
       <c r="A587" s="1">
-        <v>38</v>
+        <v>610</v>
       </c>
       <c r="B587" t="s">
         <v>17</v>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="588" spans="1:7">
       <c r="A588" s="1">
-        <v>37</v>
+        <v>609</v>
       </c>
       <c r="B588" t="s">
         <v>17</v>
@@ -13976,7 +13976,7 @@
     </row>
     <row r="589" spans="1:7">
       <c r="A589" s="1">
-        <v>36</v>
+        <v>608</v>
       </c>
       <c r="B589" t="s">
         <v>17</v>
@@ -13999,7 +13999,7 @@
     </row>
     <row r="590" spans="1:7">
       <c r="A590" s="1">
-        <v>35</v>
+        <v>607</v>
       </c>
       <c r="B590" t="s">
         <v>17</v>
@@ -14022,7 +14022,7 @@
     </row>
     <row r="591" spans="1:7">
       <c r="A591" s="1">
-        <v>34</v>
+        <v>606</v>
       </c>
       <c r="B591" t="s">
         <v>17</v>
@@ -14045,7 +14045,7 @@
     </row>
     <row r="592" spans="1:7">
       <c r="A592" s="1">
-        <v>33</v>
+        <v>605</v>
       </c>
       <c r="B592" t="s">
         <v>17</v>
@@ -14068,7 +14068,7 @@
     </row>
     <row r="593" spans="1:7">
       <c r="A593" s="1">
-        <v>32</v>
+        <v>604</v>
       </c>
       <c r="B593" t="s">
         <v>17</v>
@@ -14091,7 +14091,7 @@
     </row>
     <row r="594" spans="1:7">
       <c r="A594" s="1">
-        <v>31</v>
+        <v>603</v>
       </c>
       <c r="B594" t="s">
         <v>17</v>
@@ -14114,7 +14114,7 @@
     </row>
     <row r="595" spans="1:7">
       <c r="A595" s="1">
-        <v>30</v>
+        <v>602</v>
       </c>
       <c r="B595" t="s">
         <v>17</v>
@@ -14137,7 +14137,7 @@
     </row>
     <row r="596" spans="1:7">
       <c r="A596" s="1">
-        <v>29</v>
+        <v>601</v>
       </c>
       <c r="B596" t="s">
         <v>17</v>
@@ -14160,7 +14160,7 @@
     </row>
     <row r="597" spans="1:7">
       <c r="A597" s="1">
-        <v>28</v>
+        <v>600</v>
       </c>
       <c r="B597" t="s">
         <v>17</v>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="598" spans="1:7">
       <c r="A598" s="1">
-        <v>27</v>
+        <v>599</v>
       </c>
       <c r="B598" t="s">
         <v>17</v>
@@ -14206,7 +14206,7 @@
     </row>
     <row r="599" spans="1:7">
       <c r="A599" s="1">
-        <v>26</v>
+        <v>598</v>
       </c>
       <c r="B599" t="s">
         <v>17</v>
@@ -14229,7 +14229,7 @@
     </row>
     <row r="600" spans="1:7">
       <c r="A600" s="1">
-        <v>25</v>
+        <v>597</v>
       </c>
       <c r="B600" t="s">
         <v>17</v>
@@ -14252,7 +14252,7 @@
     </row>
     <row r="601" spans="1:7">
       <c r="A601" s="1">
-        <v>24</v>
+        <v>596</v>
       </c>
       <c r="B601" t="s">
         <v>17</v>
@@ -14275,7 +14275,7 @@
     </row>
     <row r="602" spans="1:7">
       <c r="A602" s="1">
-        <v>23</v>
+        <v>595</v>
       </c>
       <c r="B602" t="s">
         <v>17</v>
@@ -14298,7 +14298,7 @@
     </row>
     <row r="603" spans="1:7">
       <c r="A603" s="1">
-        <v>22</v>
+        <v>594</v>
       </c>
       <c r="B603" t="s">
         <v>17</v>
@@ -14321,7 +14321,7 @@
     </row>
     <row r="604" spans="1:7">
       <c r="A604" s="1">
-        <v>21</v>
+        <v>593</v>
       </c>
       <c r="B604" t="s">
         <v>17</v>
@@ -14344,7 +14344,7 @@
     </row>
     <row r="605" spans="1:7">
       <c r="A605" s="1">
-        <v>20</v>
+        <v>592</v>
       </c>
       <c r="B605" t="s">
         <v>17</v>
@@ -14367,7 +14367,7 @@
     </row>
     <row r="606" spans="1:7">
       <c r="A606" s="1">
-        <v>19</v>
+        <v>591</v>
       </c>
       <c r="B606" t="s">
         <v>17</v>
@@ -14390,7 +14390,7 @@
     </row>
     <row r="607" spans="1:7">
       <c r="A607" s="1">
-        <v>18</v>
+        <v>590</v>
       </c>
       <c r="B607" t="s">
         <v>17</v>
@@ -14413,7 +14413,7 @@
     </row>
     <row r="608" spans="1:7">
       <c r="A608" s="1">
-        <v>17</v>
+        <v>589</v>
       </c>
       <c r="B608" t="s">
         <v>17</v>
@@ -14436,7 +14436,7 @@
     </row>
     <row r="609" spans="1:7">
       <c r="A609" s="1">
-        <v>16</v>
+        <v>588</v>
       </c>
       <c r="B609" t="s">
         <v>17</v>
@@ -14459,7 +14459,7 @@
     </row>
     <row r="610" spans="1:7">
       <c r="A610" s="1">
-        <v>15</v>
+        <v>587</v>
       </c>
       <c r="B610" t="s">
         <v>17</v>
@@ -14482,7 +14482,7 @@
     </row>
     <row r="611" spans="1:7">
       <c r="A611" s="1">
-        <v>14</v>
+        <v>586</v>
       </c>
       <c r="B611" t="s">
         <v>17</v>
@@ -14505,7 +14505,7 @@
     </row>
     <row r="612" spans="1:7">
       <c r="A612" s="1">
-        <v>13</v>
+        <v>585</v>
       </c>
       <c r="B612" t="s">
         <v>17</v>
@@ -14528,7 +14528,7 @@
     </row>
     <row r="613" spans="1:7">
       <c r="A613" s="1">
-        <v>12</v>
+        <v>584</v>
       </c>
       <c r="B613" t="s">
         <v>17</v>
@@ -14551,7 +14551,7 @@
     </row>
     <row r="614" spans="1:7">
       <c r="A614" s="1">
-        <v>11</v>
+        <v>583</v>
       </c>
       <c r="B614" t="s">
         <v>17</v>
@@ -14574,7 +14574,7 @@
     </row>
     <row r="615" spans="1:7">
       <c r="A615" s="1">
-        <v>10</v>
+        <v>582</v>
       </c>
       <c r="B615" t="s">
         <v>17</v>
@@ -14597,7 +14597,7 @@
     </row>
     <row r="616" spans="1:7">
       <c r="A616" s="1">
-        <v>9</v>
+        <v>581</v>
       </c>
       <c r="B616" t="s">
         <v>17</v>
@@ -14620,7 +14620,7 @@
     </row>
     <row r="617" spans="1:7">
       <c r="A617" s="1">
-        <v>8</v>
+        <v>580</v>
       </c>
       <c r="B617" t="s">
         <v>17</v>
@@ -14643,7 +14643,7 @@
     </row>
     <row r="618" spans="1:7">
       <c r="A618" s="1">
-        <v>7</v>
+        <v>579</v>
       </c>
       <c r="B618" t="s">
         <v>17</v>
@@ -14666,7 +14666,7 @@
     </row>
     <row r="619" spans="1:7">
       <c r="A619" s="1">
-        <v>6</v>
+        <v>578</v>
       </c>
       <c r="B619" t="s">
         <v>17</v>
@@ -14689,7 +14689,7 @@
     </row>
     <row r="620" spans="1:7">
       <c r="A620" s="1">
-        <v>5</v>
+        <v>577</v>
       </c>
       <c r="B620" t="s">
         <v>17</v>
@@ -14712,7 +14712,7 @@
     </row>
     <row r="621" spans="1:7">
       <c r="A621" s="1">
-        <v>4</v>
+        <v>576</v>
       </c>
       <c r="B621" t="s">
         <v>17</v>
@@ -14735,7 +14735,7 @@
     </row>
     <row r="622" spans="1:7">
       <c r="A622" s="1">
-        <v>3</v>
+        <v>575</v>
       </c>
       <c r="B622" t="s">
         <v>17</v>
@@ -14758,7 +14758,7 @@
     </row>
     <row r="623" spans="1:7">
       <c r="A623" s="1">
-        <v>2</v>
+        <v>574</v>
       </c>
       <c r="B623" t="s">
         <v>17</v>
@@ -14781,7 +14781,7 @@
     </row>
     <row r="624" spans="1:7">
       <c r="A624" s="1">
-        <v>1</v>
+        <v>573</v>
       </c>
       <c r="B624" t="s">
         <v>17</v>
@@ -14804,7 +14804,7 @@
     </row>
     <row r="625" spans="1:7">
       <c r="A625" s="1">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="B625" t="s">
         <v>17</v>
@@ -14827,7 +14827,7 @@
     </row>
     <row r="626" spans="1:7">
       <c r="A626" s="1">
-        <v>51</v>
+        <v>675</v>
       </c>
       <c r="B626" t="s">
         <v>18</v>
@@ -14850,7 +14850,7 @@
     </row>
     <row r="627" spans="1:7">
       <c r="A627" s="1">
-        <v>50</v>
+        <v>674</v>
       </c>
       <c r="B627" t="s">
         <v>18</v>
@@ -14873,7 +14873,7 @@
     </row>
     <row r="628" spans="1:7">
       <c r="A628" s="1">
-        <v>49</v>
+        <v>673</v>
       </c>
       <c r="B628" t="s">
         <v>18</v>
@@ -14896,7 +14896,7 @@
     </row>
     <row r="629" spans="1:7">
       <c r="A629" s="1">
-        <v>48</v>
+        <v>672</v>
       </c>
       <c r="B629" t="s">
         <v>18</v>
@@ -14919,7 +14919,7 @@
     </row>
     <row r="630" spans="1:7">
       <c r="A630" s="1">
-        <v>47</v>
+        <v>671</v>
       </c>
       <c r="B630" t="s">
         <v>18</v>
@@ -14942,7 +14942,7 @@
     </row>
     <row r="631" spans="1:7">
       <c r="A631" s="1">
-        <v>46</v>
+        <v>670</v>
       </c>
       <c r="B631" t="s">
         <v>18</v>
@@ -14965,7 +14965,7 @@
     </row>
     <row r="632" spans="1:7">
       <c r="A632" s="1">
-        <v>45</v>
+        <v>669</v>
       </c>
       <c r="B632" t="s">
         <v>18</v>
@@ -14988,7 +14988,7 @@
     </row>
     <row r="633" spans="1:7">
       <c r="A633" s="1">
-        <v>44</v>
+        <v>668</v>
       </c>
       <c r="B633" t="s">
         <v>18</v>
@@ -15011,7 +15011,7 @@
     </row>
     <row r="634" spans="1:7">
       <c r="A634" s="1">
-        <v>43</v>
+        <v>667</v>
       </c>
       <c r="B634" t="s">
         <v>18</v>
@@ -15034,7 +15034,7 @@
     </row>
     <row r="635" spans="1:7">
       <c r="A635" s="1">
-        <v>42</v>
+        <v>666</v>
       </c>
       <c r="B635" t="s">
         <v>18</v>
@@ -15057,7 +15057,7 @@
     </row>
     <row r="636" spans="1:7">
       <c r="A636" s="1">
-        <v>41</v>
+        <v>665</v>
       </c>
       <c r="B636" t="s">
         <v>18</v>
@@ -15080,7 +15080,7 @@
     </row>
     <row r="637" spans="1:7">
       <c r="A637" s="1">
-        <v>40</v>
+        <v>664</v>
       </c>
       <c r="B637" t="s">
         <v>18</v>
@@ -15103,7 +15103,7 @@
     </row>
     <row r="638" spans="1:7">
       <c r="A638" s="1">
-        <v>39</v>
+        <v>663</v>
       </c>
       <c r="B638" t="s">
         <v>18</v>
@@ -15126,7 +15126,7 @@
     </row>
     <row r="639" spans="1:7">
       <c r="A639" s="1">
-        <v>38</v>
+        <v>662</v>
       </c>
       <c r="B639" t="s">
         <v>18</v>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="640" spans="1:7">
       <c r="A640" s="1">
-        <v>37</v>
+        <v>661</v>
       </c>
       <c r="B640" t="s">
         <v>18</v>
@@ -15172,7 +15172,7 @@
     </row>
     <row r="641" spans="1:7">
       <c r="A641" s="1">
-        <v>36</v>
+        <v>660</v>
       </c>
       <c r="B641" t="s">
         <v>18</v>
@@ -15195,7 +15195,7 @@
     </row>
     <row r="642" spans="1:7">
       <c r="A642" s="1">
-        <v>35</v>
+        <v>659</v>
       </c>
       <c r="B642" t="s">
         <v>18</v>
@@ -15218,7 +15218,7 @@
     </row>
     <row r="643" spans="1:7">
       <c r="A643" s="1">
-        <v>34</v>
+        <v>658</v>
       </c>
       <c r="B643" t="s">
         <v>18</v>
@@ -15241,7 +15241,7 @@
     </row>
     <row r="644" spans="1:7">
       <c r="A644" s="1">
-        <v>33</v>
+        <v>657</v>
       </c>
       <c r="B644" t="s">
         <v>18</v>
@@ -15264,7 +15264,7 @@
     </row>
     <row r="645" spans="1:7">
       <c r="A645" s="1">
-        <v>32</v>
+        <v>656</v>
       </c>
       <c r="B645" t="s">
         <v>18</v>
@@ -15287,7 +15287,7 @@
     </row>
     <row r="646" spans="1:7">
       <c r="A646" s="1">
-        <v>31</v>
+        <v>655</v>
       </c>
       <c r="B646" t="s">
         <v>18</v>
@@ -15310,7 +15310,7 @@
     </row>
     <row r="647" spans="1:7">
       <c r="A647" s="1">
-        <v>30</v>
+        <v>654</v>
       </c>
       <c r="B647" t="s">
         <v>18</v>
@@ -15333,7 +15333,7 @@
     </row>
     <row r="648" spans="1:7">
       <c r="A648" s="1">
-        <v>29</v>
+        <v>653</v>
       </c>
       <c r="B648" t="s">
         <v>18</v>
@@ -15356,7 +15356,7 @@
     </row>
     <row r="649" spans="1:7">
       <c r="A649" s="1">
-        <v>28</v>
+        <v>652</v>
       </c>
       <c r="B649" t="s">
         <v>18</v>
@@ -15379,7 +15379,7 @@
     </row>
     <row r="650" spans="1:7">
       <c r="A650" s="1">
-        <v>27</v>
+        <v>651</v>
       </c>
       <c r="B650" t="s">
         <v>18</v>
@@ -15402,7 +15402,7 @@
     </row>
     <row r="651" spans="1:7">
       <c r="A651" s="1">
-        <v>26</v>
+        <v>650</v>
       </c>
       <c r="B651" t="s">
         <v>18</v>
@@ -15425,7 +15425,7 @@
     </row>
     <row r="652" spans="1:7">
       <c r="A652" s="1">
-        <v>25</v>
+        <v>649</v>
       </c>
       <c r="B652" t="s">
         <v>18</v>
@@ -15448,7 +15448,7 @@
     </row>
     <row r="653" spans="1:7">
       <c r="A653" s="1">
-        <v>24</v>
+        <v>648</v>
       </c>
       <c r="B653" t="s">
         <v>18</v>
@@ -15471,7 +15471,7 @@
     </row>
     <row r="654" spans="1:7">
       <c r="A654" s="1">
-        <v>23</v>
+        <v>647</v>
       </c>
       <c r="B654" t="s">
         <v>18</v>
@@ -15494,7 +15494,7 @@
     </row>
     <row r="655" spans="1:7">
       <c r="A655" s="1">
-        <v>22</v>
+        <v>646</v>
       </c>
       <c r="B655" t="s">
         <v>18</v>
@@ -15517,7 +15517,7 @@
     </row>
     <row r="656" spans="1:7">
       <c r="A656" s="1">
-        <v>21</v>
+        <v>645</v>
       </c>
       <c r="B656" t="s">
         <v>18</v>
@@ -15540,7 +15540,7 @@
     </row>
     <row r="657" spans="1:7">
       <c r="A657" s="1">
-        <v>20</v>
+        <v>644</v>
       </c>
       <c r="B657" t="s">
         <v>18</v>
@@ -15563,7 +15563,7 @@
     </row>
     <row r="658" spans="1:7">
       <c r="A658" s="1">
-        <v>19</v>
+        <v>643</v>
       </c>
       <c r="B658" t="s">
         <v>18</v>
@@ -15586,7 +15586,7 @@
     </row>
     <row r="659" spans="1:7">
       <c r="A659" s="1">
-        <v>18</v>
+        <v>642</v>
       </c>
       <c r="B659" t="s">
         <v>18</v>
@@ -15609,7 +15609,7 @@
     </row>
     <row r="660" spans="1:7">
       <c r="A660" s="1">
-        <v>17</v>
+        <v>641</v>
       </c>
       <c r="B660" t="s">
         <v>18</v>
@@ -15632,7 +15632,7 @@
     </row>
     <row r="661" spans="1:7">
       <c r="A661" s="1">
-        <v>16</v>
+        <v>640</v>
       </c>
       <c r="B661" t="s">
         <v>18</v>
@@ -15655,7 +15655,7 @@
     </row>
     <row r="662" spans="1:7">
       <c r="A662" s="1">
-        <v>15</v>
+        <v>639</v>
       </c>
       <c r="B662" t="s">
         <v>18</v>
@@ -15678,7 +15678,7 @@
     </row>
     <row r="663" spans="1:7">
       <c r="A663" s="1">
-        <v>14</v>
+        <v>638</v>
       </c>
       <c r="B663" t="s">
         <v>18</v>
@@ -15701,7 +15701,7 @@
     </row>
     <row r="664" spans="1:7">
       <c r="A664" s="1">
-        <v>13</v>
+        <v>637</v>
       </c>
       <c r="B664" t="s">
         <v>18</v>
@@ -15724,7 +15724,7 @@
     </row>
     <row r="665" spans="1:7">
       <c r="A665" s="1">
-        <v>12</v>
+        <v>636</v>
       </c>
       <c r="B665" t="s">
         <v>18</v>
@@ -15747,7 +15747,7 @@
     </row>
     <row r="666" spans="1:7">
       <c r="A666" s="1">
-        <v>11</v>
+        <v>635</v>
       </c>
       <c r="B666" t="s">
         <v>18</v>
@@ -15770,7 +15770,7 @@
     </row>
     <row r="667" spans="1:7">
       <c r="A667" s="1">
-        <v>10</v>
+        <v>634</v>
       </c>
       <c r="B667" t="s">
         <v>18</v>
@@ -15793,7 +15793,7 @@
     </row>
     <row r="668" spans="1:7">
       <c r="A668" s="1">
-        <v>9</v>
+        <v>633</v>
       </c>
       <c r="B668" t="s">
         <v>18</v>
@@ -15816,7 +15816,7 @@
     </row>
     <row r="669" spans="1:7">
       <c r="A669" s="1">
-        <v>8</v>
+        <v>632</v>
       </c>
       <c r="B669" t="s">
         <v>18</v>
@@ -15839,7 +15839,7 @@
     </row>
     <row r="670" spans="1:7">
       <c r="A670" s="1">
-        <v>7</v>
+        <v>631</v>
       </c>
       <c r="B670" t="s">
         <v>18</v>
@@ -15862,7 +15862,7 @@
     </row>
     <row r="671" spans="1:7">
       <c r="A671" s="1">
-        <v>6</v>
+        <v>630</v>
       </c>
       <c r="B671" t="s">
         <v>18</v>
@@ -15885,7 +15885,7 @@
     </row>
     <row r="672" spans="1:7">
       <c r="A672" s="1">
-        <v>5</v>
+        <v>629</v>
       </c>
       <c r="B672" t="s">
         <v>18</v>
@@ -15908,7 +15908,7 @@
     </row>
     <row r="673" spans="1:7">
       <c r="A673" s="1">
-        <v>4</v>
+        <v>628</v>
       </c>
       <c r="B673" t="s">
         <v>18</v>
@@ -15931,7 +15931,7 @@
     </row>
     <row r="674" spans="1:7">
       <c r="A674" s="1">
-        <v>3</v>
+        <v>627</v>
       </c>
       <c r="B674" t="s">
         <v>18</v>
@@ -15954,7 +15954,7 @@
     </row>
     <row r="675" spans="1:7">
       <c r="A675" s="1">
-        <v>2</v>
+        <v>626</v>
       </c>
       <c r="B675" t="s">
         <v>18</v>
@@ -15977,7 +15977,7 @@
     </row>
     <row r="676" spans="1:7">
       <c r="A676" s="1">
-        <v>1</v>
+        <v>625</v>
       </c>
       <c r="B676" t="s">
         <v>18</v>
@@ -16000,7 +16000,7 @@
     </row>
     <row r="677" spans="1:7">
       <c r="A677" s="1">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="B677" t="s">
         <v>18</v>
@@ -16023,7 +16023,7 @@
     </row>
     <row r="678" spans="1:7">
       <c r="A678" s="1">
-        <v>51</v>
+        <v>727</v>
       </c>
       <c r="B678" t="s">
         <v>19</v>
@@ -16046,7 +16046,7 @@
     </row>
     <row r="679" spans="1:7">
       <c r="A679" s="1">
-        <v>50</v>
+        <v>726</v>
       </c>
       <c r="B679" t="s">
         <v>19</v>
@@ -16069,7 +16069,7 @@
     </row>
     <row r="680" spans="1:7">
       <c r="A680" s="1">
-        <v>49</v>
+        <v>725</v>
       </c>
       <c r="B680" t="s">
         <v>19</v>
@@ -16092,7 +16092,7 @@
     </row>
     <row r="681" spans="1:7">
       <c r="A681" s="1">
-        <v>48</v>
+        <v>724</v>
       </c>
       <c r="B681" t="s">
         <v>19</v>
@@ -16115,7 +16115,7 @@
     </row>
     <row r="682" spans="1:7">
       <c r="A682" s="1">
-        <v>47</v>
+        <v>723</v>
       </c>
       <c r="B682" t="s">
         <v>19</v>
@@ -16138,7 +16138,7 @@
     </row>
     <row r="683" spans="1:7">
       <c r="A683" s="1">
-        <v>46</v>
+        <v>722</v>
       </c>
       <c r="B683" t="s">
         <v>19</v>
@@ -16161,7 +16161,7 @@
     </row>
     <row r="684" spans="1:7">
       <c r="A684" s="1">
-        <v>45</v>
+        <v>721</v>
       </c>
       <c r="B684" t="s">
         <v>19</v>
@@ -16184,7 +16184,7 @@
     </row>
     <row r="685" spans="1:7">
       <c r="A685" s="1">
-        <v>44</v>
+        <v>720</v>
       </c>
       <c r="B685" t="s">
         <v>19</v>
@@ -16207,7 +16207,7 @@
     </row>
     <row r="686" spans="1:7">
       <c r="A686" s="1">
-        <v>43</v>
+        <v>719</v>
       </c>
       <c r="B686" t="s">
         <v>19</v>
@@ -16230,7 +16230,7 @@
     </row>
     <row r="687" spans="1:7">
       <c r="A687" s="1">
-        <v>42</v>
+        <v>718</v>
       </c>
       <c r="B687" t="s">
         <v>19</v>
@@ -16253,7 +16253,7 @@
     </row>
     <row r="688" spans="1:7">
       <c r="A688" s="1">
-        <v>41</v>
+        <v>717</v>
       </c>
       <c r="B688" t="s">
         <v>19</v>
@@ -16276,7 +16276,7 @@
     </row>
     <row r="689" spans="1:7">
       <c r="A689" s="1">
-        <v>40</v>
+        <v>716</v>
       </c>
       <c r="B689" t="s">
         <v>19</v>
@@ -16299,7 +16299,7 @@
     </row>
     <row r="690" spans="1:7">
       <c r="A690" s="1">
-        <v>39</v>
+        <v>715</v>
       </c>
       <c r="B690" t="s">
         <v>19</v>
@@ -16322,7 +16322,7 @@
     </row>
     <row r="691" spans="1:7">
       <c r="A691" s="1">
-        <v>38</v>
+        <v>714</v>
       </c>
       <c r="B691" t="s">
         <v>19</v>
@@ -16345,7 +16345,7 @@
     </row>
     <row r="692" spans="1:7">
       <c r="A692" s="1">
-        <v>37</v>
+        <v>713</v>
       </c>
       <c r="B692" t="s">
         <v>19</v>
@@ -16368,7 +16368,7 @@
     </row>
     <row r="693" spans="1:7">
       <c r="A693" s="1">
-        <v>36</v>
+        <v>712</v>
       </c>
       <c r="B693" t="s">
         <v>19</v>
@@ -16391,7 +16391,7 @@
     </row>
     <row r="694" spans="1:7">
       <c r="A694" s="1">
-        <v>35</v>
+        <v>711</v>
       </c>
       <c r="B694" t="s">
         <v>19</v>
@@ -16414,7 +16414,7 @@
     </row>
     <row r="695" spans="1:7">
       <c r="A695" s="1">
-        <v>34</v>
+        <v>710</v>
       </c>
       <c r="B695" t="s">
         <v>19</v>
@@ -16437,7 +16437,7 @@
     </row>
     <row r="696" spans="1:7">
       <c r="A696" s="1">
-        <v>33</v>
+        <v>709</v>
       </c>
       <c r="B696" t="s">
         <v>19</v>
@@ -16460,7 +16460,7 @@
     </row>
     <row r="697" spans="1:7">
       <c r="A697" s="1">
-        <v>32</v>
+        <v>708</v>
       </c>
       <c r="B697" t="s">
         <v>19</v>
@@ -16483,7 +16483,7 @@
     </row>
     <row r="698" spans="1:7">
       <c r="A698" s="1">
-        <v>31</v>
+        <v>707</v>
       </c>
       <c r="B698" t="s">
         <v>19</v>
@@ -16506,7 +16506,7 @@
     </row>
     <row r="699" spans="1:7">
       <c r="A699" s="1">
-        <v>30</v>
+        <v>706</v>
       </c>
       <c r="B699" t="s">
         <v>19</v>
@@ -16529,7 +16529,7 @@
     </row>
     <row r="700" spans="1:7">
       <c r="A700" s="1">
-        <v>29</v>
+        <v>705</v>
       </c>
       <c r="B700" t="s">
         <v>19</v>
@@ -16552,7 +16552,7 @@
     </row>
     <row r="701" spans="1:7">
       <c r="A701" s="1">
-        <v>28</v>
+        <v>704</v>
       </c>
       <c r="B701" t="s">
         <v>19</v>
@@ -16575,7 +16575,7 @@
     </row>
     <row r="702" spans="1:7">
       <c r="A702" s="1">
-        <v>27</v>
+        <v>703</v>
       </c>
       <c r="B702" t="s">
         <v>19</v>
@@ -16598,7 +16598,7 @@
     </row>
     <row r="703" spans="1:7">
       <c r="A703" s="1">
-        <v>26</v>
+        <v>702</v>
       </c>
       <c r="B703" t="s">
         <v>19</v>
@@ -16621,7 +16621,7 @@
     </row>
     <row r="704" spans="1:7">
       <c r="A704" s="1">
-        <v>25</v>
+        <v>701</v>
       </c>
       <c r="B704" t="s">
         <v>19</v>
@@ -16644,7 +16644,7 @@
     </row>
     <row r="705" spans="1:7">
       <c r="A705" s="1">
-        <v>24</v>
+        <v>700</v>
       </c>
       <c r="B705" t="s">
         <v>19</v>
@@ -16667,7 +16667,7 @@
     </row>
     <row r="706" spans="1:7">
       <c r="A706" s="1">
-        <v>23</v>
+        <v>699</v>
       </c>
       <c r="B706" t="s">
         <v>19</v>
@@ -16690,7 +16690,7 @@
     </row>
     <row r="707" spans="1:7">
       <c r="A707" s="1">
-        <v>22</v>
+        <v>698</v>
       </c>
       <c r="B707" t="s">
         <v>19</v>
@@ -16713,7 +16713,7 @@
     </row>
     <row r="708" spans="1:7">
       <c r="A708" s="1">
-        <v>21</v>
+        <v>697</v>
       </c>
       <c r="B708" t="s">
         <v>19</v>
@@ -16736,7 +16736,7 @@
     </row>
     <row r="709" spans="1:7">
       <c r="A709" s="1">
-        <v>20</v>
+        <v>696</v>
       </c>
       <c r="B709" t="s">
         <v>19</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="710" spans="1:7">
       <c r="A710" s="1">
-        <v>19</v>
+        <v>695</v>
       </c>
       <c r="B710" t="s">
         <v>19</v>
@@ -16782,7 +16782,7 @@
     </row>
     <row r="711" spans="1:7">
       <c r="A711" s="1">
-        <v>18</v>
+        <v>694</v>
       </c>
       <c r="B711" t="s">
         <v>19</v>
@@ -16805,7 +16805,7 @@
     </row>
     <row r="712" spans="1:7">
       <c r="A712" s="1">
-        <v>17</v>
+        <v>693</v>
       </c>
       <c r="B712" t="s">
         <v>19</v>
@@ -16828,7 +16828,7 @@
     </row>
     <row r="713" spans="1:7">
       <c r="A713" s="1">
-        <v>16</v>
+        <v>692</v>
       </c>
       <c r="B713" t="s">
         <v>19</v>
@@ -16851,7 +16851,7 @@
     </row>
     <row r="714" spans="1:7">
       <c r="A714" s="1">
-        <v>15</v>
+        <v>691</v>
       </c>
       <c r="B714" t="s">
         <v>19</v>
@@ -16874,7 +16874,7 @@
     </row>
     <row r="715" spans="1:7">
       <c r="A715" s="1">
-        <v>14</v>
+        <v>690</v>
       </c>
       <c r="B715" t="s">
         <v>19</v>
@@ -16897,7 +16897,7 @@
     </row>
     <row r="716" spans="1:7">
       <c r="A716" s="1">
-        <v>13</v>
+        <v>689</v>
       </c>
       <c r="B716" t="s">
         <v>19</v>
@@ -16920,7 +16920,7 @@
     </row>
     <row r="717" spans="1:7">
       <c r="A717" s="1">
-        <v>12</v>
+        <v>688</v>
       </c>
       <c r="B717" t="s">
         <v>19</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="718" spans="1:7">
       <c r="A718" s="1">
-        <v>11</v>
+        <v>687</v>
       </c>
       <c r="B718" t="s">
         <v>19</v>
@@ -16966,7 +16966,7 @@
     </row>
     <row r="719" spans="1:7">
       <c r="A719" s="1">
-        <v>10</v>
+        <v>686</v>
       </c>
       <c r="B719" t="s">
         <v>19</v>
@@ -16989,7 +16989,7 @@
     </row>
     <row r="720" spans="1:7">
       <c r="A720" s="1">
-        <v>9</v>
+        <v>685</v>
       </c>
       <c r="B720" t="s">
         <v>19</v>
@@ -17012,7 +17012,7 @@
     </row>
     <row r="721" spans="1:7">
       <c r="A721" s="1">
-        <v>8</v>
+        <v>684</v>
       </c>
       <c r="B721" t="s">
         <v>19</v>
@@ -17035,7 +17035,7 @@
     </row>
     <row r="722" spans="1:7">
       <c r="A722" s="1">
-        <v>7</v>
+        <v>683</v>
       </c>
       <c r="B722" t="s">
         <v>19</v>
@@ -17058,7 +17058,7 @@
     </row>
     <row r="723" spans="1:7">
       <c r="A723" s="1">
-        <v>6</v>
+        <v>682</v>
       </c>
       <c r="B723" t="s">
         <v>19</v>
@@ -17081,7 +17081,7 @@
     </row>
     <row r="724" spans="1:7">
       <c r="A724" s="1">
-        <v>5</v>
+        <v>681</v>
       </c>
       <c r="B724" t="s">
         <v>19</v>
@@ -17104,7 +17104,7 @@
     </row>
     <row r="725" spans="1:7">
       <c r="A725" s="1">
-        <v>4</v>
+        <v>680</v>
       </c>
       <c r="B725" t="s">
         <v>19</v>
@@ -17127,7 +17127,7 @@
     </row>
     <row r="726" spans="1:7">
       <c r="A726" s="1">
-        <v>3</v>
+        <v>679</v>
       </c>
       <c r="B726" t="s">
         <v>19</v>
@@ -17150,7 +17150,7 @@
     </row>
     <row r="727" spans="1:7">
       <c r="A727" s="1">
-        <v>2</v>
+        <v>678</v>
       </c>
       <c r="B727" t="s">
         <v>19</v>
@@ -17173,7 +17173,7 @@
     </row>
     <row r="728" spans="1:7">
       <c r="A728" s="1">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="B728" t="s">
         <v>19</v>
@@ -17196,7 +17196,7 @@
     </row>
     <row r="729" spans="1:7">
       <c r="A729" s="1">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="B729" t="s">
         <v>19</v>
@@ -17219,7 +17219,7 @@
     </row>
     <row r="730" spans="1:7">
       <c r="A730" s="1">
-        <v>51</v>
+        <v>779</v>
       </c>
       <c r="B730" t="s">
         <v>20</v>
@@ -17242,7 +17242,7 @@
     </row>
     <row r="731" spans="1:7">
       <c r="A731" s="1">
-        <v>50</v>
+        <v>778</v>
       </c>
       <c r="B731" t="s">
         <v>20</v>
@@ -17265,7 +17265,7 @@
     </row>
     <row r="732" spans="1:7">
       <c r="A732" s="1">
-        <v>49</v>
+        <v>777</v>
       </c>
       <c r="B732" t="s">
         <v>20</v>
@@ -17288,7 +17288,7 @@
     </row>
     <row r="733" spans="1:7">
       <c r="A733" s="1">
-        <v>48</v>
+        <v>776</v>
       </c>
       <c r="B733" t="s">
         <v>20</v>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="734" spans="1:7">
       <c r="A734" s="1">
-        <v>47</v>
+        <v>775</v>
       </c>
       <c r="B734" t="s">
         <v>20</v>
@@ -17334,7 +17334,7 @@
     </row>
     <row r="735" spans="1:7">
       <c r="A735" s="1">
-        <v>46</v>
+        <v>774</v>
       </c>
       <c r="B735" t="s">
         <v>20</v>
@@ -17357,7 +17357,7 @@
     </row>
     <row r="736" spans="1:7">
       <c r="A736" s="1">
-        <v>45</v>
+        <v>773</v>
       </c>
       <c r="B736" t="s">
         <v>20</v>
@@ -17380,7 +17380,7 @@
     </row>
     <row r="737" spans="1:7">
       <c r="A737" s="1">
-        <v>44</v>
+        <v>772</v>
       </c>
       <c r="B737" t="s">
         <v>20</v>
@@ -17403,7 +17403,7 @@
     </row>
     <row r="738" spans="1:7">
       <c r="A738" s="1">
-        <v>43</v>
+        <v>771</v>
       </c>
       <c r="B738" t="s">
         <v>20</v>
@@ -17426,7 +17426,7 @@
     </row>
     <row r="739" spans="1:7">
       <c r="A739" s="1">
-        <v>42</v>
+        <v>770</v>
       </c>
       <c r="B739" t="s">
         <v>20</v>
@@ -17449,7 +17449,7 @@
     </row>
     <row r="740" spans="1:7">
       <c r="A740" s="1">
-        <v>41</v>
+        <v>769</v>
       </c>
       <c r="B740" t="s">
         <v>20</v>
@@ -17472,7 +17472,7 @@
     </row>
     <row r="741" spans="1:7">
       <c r="A741" s="1">
-        <v>40</v>
+        <v>768</v>
       </c>
       <c r="B741" t="s">
         <v>20</v>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="742" spans="1:7">
       <c r="A742" s="1">
-        <v>39</v>
+        <v>767</v>
       </c>
       <c r="B742" t="s">
         <v>20</v>
@@ -17518,7 +17518,7 @@
     </row>
     <row r="743" spans="1:7">
       <c r="A743" s="1">
-        <v>38</v>
+        <v>766</v>
       </c>
       <c r="B743" t="s">
         <v>20</v>
@@ -17541,7 +17541,7 @@
     </row>
     <row r="744" spans="1:7">
       <c r="A744" s="1">
-        <v>37</v>
+        <v>765</v>
       </c>
       <c r="B744" t="s">
         <v>20</v>
@@ -17564,7 +17564,7 @@
     </row>
     <row r="745" spans="1:7">
       <c r="A745" s="1">
-        <v>36</v>
+        <v>764</v>
       </c>
       <c r="B745" t="s">
         <v>20</v>
@@ -17587,7 +17587,7 @@
     </row>
     <row r="746" spans="1:7">
       <c r="A746" s="1">
-        <v>35</v>
+        <v>763</v>
       </c>
       <c r="B746" t="s">
         <v>20</v>
@@ -17610,7 +17610,7 @@
     </row>
     <row r="747" spans="1:7">
       <c r="A747" s="1">
-        <v>34</v>
+        <v>762</v>
       </c>
       <c r="B747" t="s">
         <v>20</v>
@@ -17633,7 +17633,7 @@
     </row>
     <row r="748" spans="1:7">
       <c r="A748" s="1">
-        <v>33</v>
+        <v>761</v>
       </c>
       <c r="B748" t="s">
         <v>20</v>
@@ -17656,7 +17656,7 @@
     </row>
     <row r="749" spans="1:7">
       <c r="A749" s="1">
-        <v>32</v>
+        <v>760</v>
       </c>
       <c r="B749" t="s">
         <v>20</v>
@@ -17679,7 +17679,7 @@
     </row>
     <row r="750" spans="1:7">
       <c r="A750" s="1">
-        <v>31</v>
+        <v>759</v>
       </c>
       <c r="B750" t="s">
         <v>20</v>
@@ -17702,7 +17702,7 @@
     </row>
     <row r="751" spans="1:7">
       <c r="A751" s="1">
-        <v>30</v>
+        <v>758</v>
       </c>
       <c r="B751" t="s">
         <v>20</v>
@@ -17725,7 +17725,7 @@
     </row>
     <row r="752" spans="1:7">
       <c r="A752" s="1">
-        <v>29</v>
+        <v>757</v>
       </c>
       <c r="B752" t="s">
         <v>20</v>
@@ -17748,7 +17748,7 @@
     </row>
     <row r="753" spans="1:7">
       <c r="A753" s="1">
-        <v>28</v>
+        <v>756</v>
       </c>
       <c r="B753" t="s">
         <v>20</v>
@@ -17771,7 +17771,7 @@
     </row>
     <row r="754" spans="1:7">
       <c r="A754" s="1">
-        <v>27</v>
+        <v>755</v>
       </c>
       <c r="B754" t="s">
         <v>20</v>
@@ -17794,7 +17794,7 @@
     </row>
     <row r="755" spans="1:7">
       <c r="A755" s="1">
-        <v>26</v>
+        <v>754</v>
       </c>
       <c r="B755" t="s">
         <v>20</v>
@@ -17817,7 +17817,7 @@
     </row>
     <row r="756" spans="1:7">
       <c r="A756" s="1">
-        <v>25</v>
+        <v>753</v>
       </c>
       <c r="B756" t="s">
         <v>20</v>
@@ -17840,7 +17840,7 @@
     </row>
     <row r="757" spans="1:7">
       <c r="A757" s="1">
-        <v>24</v>
+        <v>752</v>
       </c>
       <c r="B757" t="s">
         <v>20</v>
@@ -17863,7 +17863,7 @@
     </row>
     <row r="758" spans="1:7">
       <c r="A758" s="1">
-        <v>23</v>
+        <v>751</v>
       </c>
       <c r="B758" t="s">
         <v>20</v>
@@ -17886,7 +17886,7 @@
     </row>
     <row r="759" spans="1:7">
       <c r="A759" s="1">
-        <v>22</v>
+        <v>750</v>
       </c>
       <c r="B759" t="s">
         <v>20</v>
@@ -17909,7 +17909,7 @@
     </row>
     <row r="760" spans="1:7">
       <c r="A760" s="1">
-        <v>21</v>
+        <v>749</v>
       </c>
       <c r="B760" t="s">
         <v>20</v>
@@ -17932,7 +17932,7 @@
     </row>
     <row r="761" spans="1:7">
       <c r="A761" s="1">
-        <v>20</v>
+        <v>748</v>
       </c>
       <c r="B761" t="s">
         <v>20</v>
@@ -17955,7 +17955,7 @@
     </row>
     <row r="762" spans="1:7">
       <c r="A762" s="1">
-        <v>19</v>
+        <v>747</v>
       </c>
       <c r="B762" t="s">
         <v>20</v>
@@ -17978,7 +17978,7 @@
     </row>
     <row r="763" spans="1:7">
       <c r="A763" s="1">
-        <v>18</v>
+        <v>746</v>
       </c>
       <c r="B763" t="s">
         <v>20</v>
@@ -18001,7 +18001,7 @@
     </row>
     <row r="764" spans="1:7">
       <c r="A764" s="1">
-        <v>17</v>
+        <v>745</v>
       </c>
       <c r="B764" t="s">
         <v>20</v>
@@ -18024,7 +18024,7 @@
     </row>
     <row r="765" spans="1:7">
       <c r="A765" s="1">
-        <v>16</v>
+        <v>744</v>
       </c>
       <c r="B765" t="s">
         <v>20</v>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="766" spans="1:7">
       <c r="A766" s="1">
-        <v>15</v>
+        <v>743</v>
       </c>
       <c r="B766" t="s">
         <v>20</v>
@@ -18070,7 +18070,7 @@
     </row>
     <row r="767" spans="1:7">
       <c r="A767" s="1">
-        <v>14</v>
+        <v>742</v>
       </c>
       <c r="B767" t="s">
         <v>20</v>
@@ -18093,7 +18093,7 @@
     </row>
     <row r="768" spans="1:7">
       <c r="A768" s="1">
-        <v>13</v>
+        <v>741</v>
       </c>
       <c r="B768" t="s">
         <v>20</v>
@@ -18116,7 +18116,7 @@
     </row>
     <row r="769" spans="1:7">
       <c r="A769" s="1">
-        <v>12</v>
+        <v>740</v>
       </c>
       <c r="B769" t="s">
         <v>20</v>
@@ -18139,7 +18139,7 @@
     </row>
     <row r="770" spans="1:7">
       <c r="A770" s="1">
-        <v>11</v>
+        <v>739</v>
       </c>
       <c r="B770" t="s">
         <v>20</v>
@@ -18162,7 +18162,7 @@
     </row>
     <row r="771" spans="1:7">
       <c r="A771" s="1">
-        <v>10</v>
+        <v>738</v>
       </c>
       <c r="B771" t="s">
         <v>20</v>
@@ -18185,7 +18185,7 @@
     </row>
     <row r="772" spans="1:7">
       <c r="A772" s="1">
-        <v>9</v>
+        <v>737</v>
       </c>
       <c r="B772" t="s">
         <v>20</v>
@@ -18208,7 +18208,7 @@
     </row>
     <row r="773" spans="1:7">
       <c r="A773" s="1">
-        <v>8</v>
+        <v>736</v>
       </c>
       <c r="B773" t="s">
         <v>20</v>
@@ -18231,7 +18231,7 @@
     </row>
     <row r="774" spans="1:7">
       <c r="A774" s="1">
-        <v>7</v>
+        <v>735</v>
       </c>
       <c r="B774" t="s">
         <v>20</v>
@@ -18254,7 +18254,7 @@
     </row>
     <row r="775" spans="1:7">
       <c r="A775" s="1">
-        <v>6</v>
+        <v>734</v>
       </c>
       <c r="B775" t="s">
         <v>20</v>
@@ -18277,7 +18277,7 @@
     </row>
     <row r="776" spans="1:7">
       <c r="A776" s="1">
-        <v>5</v>
+        <v>733</v>
       </c>
       <c r="B776" t="s">
         <v>20</v>
@@ -18300,7 +18300,7 @@
     </row>
     <row r="777" spans="1:7">
       <c r="A777" s="1">
-        <v>4</v>
+        <v>732</v>
       </c>
       <c r="B777" t="s">
         <v>20</v>
@@ -18323,7 +18323,7 @@
     </row>
     <row r="778" spans="1:7">
       <c r="A778" s="1">
-        <v>3</v>
+        <v>731</v>
       </c>
       <c r="B778" t="s">
         <v>20</v>
@@ -18346,7 +18346,7 @@
     </row>
     <row r="779" spans="1:7">
       <c r="A779" s="1">
-        <v>2</v>
+        <v>730</v>
       </c>
       <c r="B779" t="s">
         <v>20</v>
@@ -18369,7 +18369,7 @@
     </row>
     <row r="780" spans="1:7">
       <c r="A780" s="1">
-        <v>1</v>
+        <v>729</v>
       </c>
       <c r="B780" t="s">
         <v>20</v>
@@ -18392,7 +18392,7 @@
     </row>
     <row r="781" spans="1:7">
       <c r="A781" s="1">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="B781" t="s">
         <v>20</v>
@@ -18667,749 +18667,119 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.002998040346907992</v>
-      </c>
-      <c r="C2">
-        <v>0.002193399698340874</v>
-      </c>
-      <c r="D2">
-        <v>0.0009484483408748115</v>
-      </c>
-      <c r="E2">
-        <v>0.002333319004524886</v>
-      </c>
-      <c r="F2">
-        <v>0.0004257786576168929</v>
-      </c>
-      <c r="G2">
-        <v>0.00127117383107089</v>
-      </c>
-      <c r="H2">
-        <v>0.0006598638763197585</v>
-      </c>
-      <c r="I2">
-        <v>0.002301652714932126</v>
-      </c>
-      <c r="J2">
-        <v>0.002243966440422322</v>
-      </c>
-      <c r="K2">
-        <v>0.001524907993966817</v>
-      </c>
-      <c r="L2">
-        <v>0.002317415535444946</v>
-      </c>
-      <c r="M2">
-        <v>0.002114782051282051</v>
-      </c>
-      <c r="N2">
-        <v>0.001739251508295626</v>
-      </c>
-      <c r="O2">
-        <v>0.001848789969834087</v>
-      </c>
-      <c r="P2">
-        <v>0.00209773491704374</v>
+        <v>0.002998040346907993</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>0.002193399698340874</v>
-      </c>
       <c r="C3">
-        <v>0.00391771040723982</v>
-      </c>
-      <c r="D3">
-        <v>0.0008993288084464556</v>
-      </c>
-      <c r="E3">
-        <v>0.001813558069381599</v>
-      </c>
-      <c r="F3">
-        <v>0.0008253348416289597</v>
-      </c>
-      <c r="G3">
-        <v>0.001032132730015083</v>
-      </c>
-      <c r="H3">
-        <v>0.0004816546003016593</v>
-      </c>
-      <c r="I3">
-        <v>0.002027135746606335</v>
-      </c>
-      <c r="J3">
-        <v>0.00229888084464555</v>
-      </c>
-      <c r="K3">
-        <v>0.001421419306184012</v>
-      </c>
-      <c r="L3">
-        <v>0.002904384615384615</v>
-      </c>
-      <c r="M3">
-        <v>0.002852533936651584</v>
-      </c>
-      <c r="N3">
-        <v>0.001701800904977376</v>
-      </c>
-      <c r="O3">
-        <v>0.001897469079939667</v>
-      </c>
-      <c r="P3">
-        <v>0.002189755656108597</v>
+        <v>0.003917710407239819</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0.0009484483408748115</v>
-      </c>
-      <c r="C4">
-        <v>0.0008993288084464556</v>
-      </c>
       <c r="D4">
-        <v>0.009104411387631971</v>
-      </c>
-      <c r="E4">
-        <v>0.002961334087481147</v>
-      </c>
-      <c r="F4">
-        <v>0.006473287707390648</v>
-      </c>
-      <c r="G4">
-        <v>0.00125588197586727</v>
-      </c>
-      <c r="H4">
-        <v>-2.137518853695318E-05</v>
-      </c>
-      <c r="I4">
-        <v>0.002130947586726999</v>
-      </c>
-      <c r="J4">
-        <v>0.001536339743589744</v>
-      </c>
-      <c r="K4">
-        <v>0.0003339140271493212</v>
-      </c>
-      <c r="L4">
-        <v>0.001769311463046757</v>
-      </c>
-      <c r="M4">
-        <v>0.002081142533936653</v>
-      </c>
-      <c r="N4">
-        <v>0.001887282428355958</v>
-      </c>
-      <c r="O4">
-        <v>0.001552065233785823</v>
-      </c>
-      <c r="P4">
-        <v>0.001703808069381599</v>
+        <v>0.009104411387631975</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>0.002333319004524886</v>
-      </c>
-      <c r="C5">
-        <v>0.001813558069381599</v>
-      </c>
-      <c r="D5">
-        <v>0.002961334087481147</v>
-      </c>
       <c r="E5">
         <v>0.008816155354449469</v>
-      </c>
-      <c r="F5">
-        <v>0.001930640271493212</v>
-      </c>
-      <c r="G5">
-        <v>0.001911118401206637</v>
-      </c>
-      <c r="H5">
-        <v>0.002231436651583711</v>
-      </c>
-      <c r="I5">
-        <v>0.003656693061840121</v>
-      </c>
-      <c r="J5">
-        <v>0.004289300904977375</v>
-      </c>
-      <c r="K5">
-        <v>0.001806250377073906</v>
-      </c>
-      <c r="L5">
-        <v>0.002962475113122172</v>
-      </c>
-      <c r="M5">
-        <v>0.002771009049773755</v>
-      </c>
-      <c r="N5">
-        <v>0.003573944947209654</v>
-      </c>
-      <c r="O5">
-        <v>0.00200220286576169</v>
-      </c>
-      <c r="P5">
-        <v>0.00349605052790347</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0.0004257786576168929</v>
-      </c>
-      <c r="C6">
-        <v>0.0008253348416289597</v>
-      </c>
-      <c r="D6">
-        <v>0.006473287707390648</v>
-      </c>
-      <c r="E6">
-        <v>0.001930640271493212</v>
-      </c>
       <c r="F6">
-        <v>0.009053204751131222</v>
-      </c>
-      <c r="G6">
-        <v>-3.85750377073907E-05</v>
-      </c>
-      <c r="H6">
-        <v>0.000130935520361991</v>
-      </c>
-      <c r="I6">
-        <v>0.001605599170437406</v>
-      </c>
-      <c r="J6">
-        <v>0.003259697209653092</v>
-      </c>
-      <c r="K6">
-        <v>0.0003164600301659125</v>
-      </c>
-      <c r="L6">
-        <v>0.001753216440422322</v>
-      </c>
-      <c r="M6">
-        <v>0.001951128959276019</v>
-      </c>
-      <c r="N6">
-        <v>0.001333350301659125</v>
-      </c>
-      <c r="O6">
-        <v>0.001196010935143288</v>
-      </c>
-      <c r="P6">
-        <v>0.001402188159879337</v>
+        <v>0.009053204751131218</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>0.00127117383107089</v>
-      </c>
-      <c r="C7">
-        <v>0.001032132730015083</v>
-      </c>
-      <c r="D7">
-        <v>0.00125588197586727</v>
-      </c>
-      <c r="E7">
-        <v>0.001911118401206637</v>
-      </c>
-      <c r="F7">
-        <v>-3.85750377073907E-05</v>
-      </c>
       <c r="G7">
-        <v>0.001804372171945702</v>
-      </c>
-      <c r="H7">
-        <v>0.0004080169683257918</v>
-      </c>
-      <c r="I7">
-        <v>0.001776163273001509</v>
-      </c>
-      <c r="J7">
-        <v>0.001162202488687783</v>
-      </c>
-      <c r="K7">
-        <v>0.0007298944193061841</v>
-      </c>
-      <c r="L7">
-        <v>0.001077958521870286</v>
-      </c>
-      <c r="M7">
-        <v>0.001211064102564102</v>
-      </c>
-      <c r="N7">
-        <v>0.001354321644042233</v>
-      </c>
-      <c r="O7">
-        <v>0.001018829939668175</v>
-      </c>
-      <c r="P7">
-        <v>0.001469827677224736</v>
+        <v>0.001804372171945701</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0.0006598638763197585</v>
-      </c>
-      <c r="C8">
-        <v>0.0004816546003016593</v>
-      </c>
-      <c r="D8">
-        <v>-2.137518853695318E-05</v>
-      </c>
-      <c r="E8">
-        <v>0.002231436651583711</v>
-      </c>
-      <c r="F8">
-        <v>0.000130935520361991</v>
-      </c>
-      <c r="G8">
-        <v>0.0004080169683257918</v>
-      </c>
       <c r="H8">
         <v>0.001673412895927602</v>
-      </c>
-      <c r="I8">
-        <v>0.0008364566365007536</v>
-      </c>
-      <c r="J8">
-        <v>0.001004515460030166</v>
-      </c>
-      <c r="K8">
-        <v>0.0008226726998491705</v>
-      </c>
-      <c r="L8">
-        <v>0.000537317496229261</v>
-      </c>
-      <c r="M8">
-        <v>0.0005479389140271492</v>
-      </c>
-      <c r="N8">
-        <v>0.001022094645550528</v>
-      </c>
-      <c r="O8">
-        <v>0.0006402017345399696</v>
-      </c>
-      <c r="P8">
-        <v>0.001021872171945701</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0.002301652714932126</v>
-      </c>
-      <c r="C9">
-        <v>0.002027135746606335</v>
-      </c>
-      <c r="D9">
-        <v>0.002130947586726999</v>
-      </c>
-      <c r="E9">
-        <v>0.003656693061840121</v>
-      </c>
-      <c r="F9">
-        <v>0.001605599170437406</v>
-      </c>
-      <c r="G9">
-        <v>0.001776163273001509</v>
-      </c>
-      <c r="H9">
-        <v>0.0008364566365007536</v>
-      </c>
       <c r="I9">
-        <v>0.006353479260935142</v>
-      </c>
-      <c r="J9">
-        <v>0.003487773378582202</v>
-      </c>
-      <c r="K9">
-        <v>0.001553461538461538</v>
-      </c>
-      <c r="L9">
-        <v>0.002502116892911012</v>
-      </c>
-      <c r="M9">
-        <v>0.002107282805429864</v>
-      </c>
-      <c r="N9">
-        <v>0.002989453619909503</v>
-      </c>
-      <c r="O9">
-        <v>0.002199871417797889</v>
-      </c>
-      <c r="P9">
-        <v>0.002900929487179487</v>
+        <v>0.006353479260935146</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>0.002243966440422322</v>
-      </c>
-      <c r="C10">
-        <v>0.00229888084464555</v>
-      </c>
-      <c r="D10">
-        <v>0.001536339743589744</v>
-      </c>
-      <c r="E10">
-        <v>0.004289300904977375</v>
-      </c>
-      <c r="F10">
-        <v>0.003259697209653092</v>
-      </c>
-      <c r="G10">
-        <v>0.001162202488687783</v>
-      </c>
-      <c r="H10">
-        <v>0.001004515460030166</v>
-      </c>
-      <c r="I10">
-        <v>0.003487773378582202</v>
-      </c>
       <c r="J10">
         <v>0.008452969457013574</v>
-      </c>
-      <c r="K10">
-        <v>0.001548030165912518</v>
-      </c>
-      <c r="L10">
-        <v>0.00303797963800905</v>
-      </c>
-      <c r="M10">
-        <v>0.002634812217194571</v>
-      </c>
-      <c r="N10">
-        <v>0.003326551659125189</v>
-      </c>
-      <c r="O10">
-        <v>0.002759459653092006</v>
-      </c>
-      <c r="P10">
-        <v>0.003342988310708899</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>0.001524907993966817</v>
-      </c>
-      <c r="C11">
-        <v>0.001421419306184012</v>
-      </c>
-      <c r="D11">
-        <v>0.0003339140271493212</v>
-      </c>
-      <c r="E11">
-        <v>0.001806250377073906</v>
-      </c>
-      <c r="F11">
-        <v>0.0003164600301659125</v>
-      </c>
-      <c r="G11">
-        <v>0.0007298944193061841</v>
-      </c>
-      <c r="H11">
-        <v>0.0008226726998491705</v>
-      </c>
-      <c r="I11">
-        <v>0.001553461538461538</v>
-      </c>
-      <c r="J11">
-        <v>0.001548030165912518</v>
-      </c>
       <c r="K11">
         <v>0.002660123680241328</v>
-      </c>
-      <c r="L11">
-        <v>0.001673935143288084</v>
-      </c>
-      <c r="M11">
-        <v>0.00166392911010558</v>
-      </c>
-      <c r="N11">
-        <v>0.001386021116138763</v>
-      </c>
-      <c r="O11">
-        <v>0.001248677224736048</v>
-      </c>
-      <c r="P11">
-        <v>0.001445141779788839</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>0.002317415535444946</v>
-      </c>
-      <c r="C12">
-        <v>0.002904384615384615</v>
-      </c>
-      <c r="D12">
-        <v>0.001769311463046757</v>
-      </c>
-      <c r="E12">
-        <v>0.002962475113122172</v>
-      </c>
-      <c r="F12">
-        <v>0.001753216440422322</v>
-      </c>
-      <c r="G12">
-        <v>0.001077958521870286</v>
-      </c>
-      <c r="H12">
-        <v>0.000537317496229261</v>
-      </c>
-      <c r="I12">
-        <v>0.002502116892911012</v>
-      </c>
-      <c r="J12">
-        <v>0.00303797963800905</v>
-      </c>
-      <c r="K12">
-        <v>0.001673935143288084</v>
-      </c>
       <c r="L12">
-        <v>0.004381751131221722</v>
-      </c>
-      <c r="M12">
-        <v>0.002836894419306183</v>
-      </c>
-      <c r="N12">
-        <v>0.001838420060331825</v>
-      </c>
-      <c r="O12">
-        <v>0.001613077677224736</v>
-      </c>
-      <c r="P12">
-        <v>0.003005456259426847</v>
+        <v>0.004381751131221719</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>0.002114782051282051</v>
-      </c>
-      <c r="C13">
-        <v>0.002852533936651584</v>
-      </c>
-      <c r="D13">
-        <v>0.002081142533936653</v>
-      </c>
-      <c r="E13">
-        <v>0.002771009049773755</v>
-      </c>
-      <c r="F13">
-        <v>0.001951128959276019</v>
-      </c>
-      <c r="G13">
-        <v>0.001211064102564102</v>
-      </c>
-      <c r="H13">
-        <v>0.0005479389140271492</v>
-      </c>
-      <c r="I13">
-        <v>0.002107282805429864</v>
-      </c>
-      <c r="J13">
-        <v>0.002634812217194571</v>
-      </c>
-      <c r="K13">
-        <v>0.00166392911010558</v>
-      </c>
-      <c r="L13">
-        <v>0.002836894419306183</v>
-      </c>
       <c r="M13">
         <v>0.003566788838612369</v>
-      </c>
-      <c r="N13">
-        <v>0.001902026395173454</v>
-      </c>
-      <c r="O13">
-        <v>0.001898773001508296</v>
-      </c>
-      <c r="P13">
-        <v>0.002566353695324283</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>0.001739251508295626</v>
-      </c>
-      <c r="C14">
-        <v>0.001701800904977376</v>
-      </c>
-      <c r="D14">
-        <v>0.001887282428355958</v>
-      </c>
-      <c r="E14">
-        <v>0.003573944947209654</v>
-      </c>
-      <c r="F14">
-        <v>0.001333350301659125</v>
-      </c>
-      <c r="G14">
-        <v>0.001354321644042233</v>
-      </c>
-      <c r="H14">
-        <v>0.001022094645550528</v>
-      </c>
-      <c r="I14">
-        <v>0.002989453619909503</v>
-      </c>
-      <c r="J14">
-        <v>0.003326551659125189</v>
-      </c>
-      <c r="K14">
-        <v>0.001386021116138763</v>
-      </c>
-      <c r="L14">
-        <v>0.001838420060331825</v>
-      </c>
-      <c r="M14">
-        <v>0.001902026395173454</v>
-      </c>
       <c r="N14">
         <v>0.004732637631975867</v>
-      </c>
-      <c r="O14">
-        <v>0.002204708521870287</v>
-      </c>
-      <c r="P14">
-        <v>0.002502579562594269</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
-        <v>0.001848789969834087</v>
-      </c>
-      <c r="C15">
-        <v>0.001897469079939667</v>
-      </c>
-      <c r="D15">
-        <v>0.001552065233785823</v>
-      </c>
-      <c r="E15">
-        <v>0.00200220286576169</v>
-      </c>
-      <c r="F15">
-        <v>0.001196010935143288</v>
-      </c>
-      <c r="G15">
-        <v>0.001018829939668175</v>
-      </c>
-      <c r="H15">
-        <v>0.0006402017345399696</v>
-      </c>
-      <c r="I15">
-        <v>0.002199871417797889</v>
-      </c>
-      <c r="J15">
-        <v>0.002759459653092006</v>
-      </c>
-      <c r="K15">
-        <v>0.001248677224736048</v>
-      </c>
-      <c r="L15">
-        <v>0.001613077677224736</v>
-      </c>
-      <c r="M15">
-        <v>0.001898773001508296</v>
-      </c>
-      <c r="N15">
-        <v>0.002204708521870287</v>
-      </c>
       <c r="O15">
-        <v>0.002933243966817495</v>
-      </c>
-      <c r="P15">
-        <v>0.002180537330316742</v>
+        <v>0.002933243966817496</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
-        <v>0.00209773491704374</v>
-      </c>
-      <c r="C16">
-        <v>0.002189755656108597</v>
-      </c>
-      <c r="D16">
-        <v>0.001703808069381599</v>
-      </c>
-      <c r="E16">
-        <v>0.00349605052790347</v>
-      </c>
-      <c r="F16">
-        <v>0.001402188159879337</v>
-      </c>
-      <c r="G16">
-        <v>0.001469827677224736</v>
-      </c>
-      <c r="H16">
-        <v>0.001021872171945701</v>
-      </c>
-      <c r="I16">
-        <v>0.002900929487179487</v>
-      </c>
-      <c r="J16">
-        <v>0.003342988310708899</v>
-      </c>
-      <c r="K16">
-        <v>0.001445141779788839</v>
-      </c>
-      <c r="L16">
-        <v>0.003005456259426847</v>
-      </c>
-      <c r="M16">
-        <v>0.002566353695324283</v>
-      </c>
-      <c r="N16">
-        <v>0.002502579562594269</v>
-      </c>
-      <c r="O16">
-        <v>0.002180537330316742</v>
-      </c>
       <c r="P16">
-        <v>0.004670915158371041</v>
+        <v>0.00467091515837104</v>
       </c>
     </row>
   </sheetData>
@@ -19479,747 +18849,117 @@
       <c r="B2">
         <v>0.003000669485982247</v>
       </c>
-      <c r="C2">
-        <v>0.002195238609311242</v>
-      </c>
-      <c r="D2">
-        <v>0.0009508271235367424</v>
-      </c>
-      <c r="E2">
-        <v>0.002338836173310498</v>
-      </c>
-      <c r="F2">
-        <v>0.0004288730025838302</v>
-      </c>
-      <c r="G2">
-        <v>0.001271628224799166</v>
-      </c>
-      <c r="H2">
-        <v>0.0006633438077657554</v>
-      </c>
-      <c r="I2">
-        <v>0.002303319912643955</v>
-      </c>
-      <c r="J2">
-        <v>0.002246293589786045</v>
-      </c>
-      <c r="K2">
-        <v>0.001528551973223719</v>
-      </c>
-      <c r="L2">
-        <v>0.002319173308375273</v>
-      </c>
-      <c r="M2">
-        <v>0.002116183814790693</v>
-      </c>
-      <c r="N2">
-        <v>0.001742982663940469</v>
-      </c>
-      <c r="O2">
-        <v>0.00185050229244519</v>
-      </c>
-      <c r="P2">
-        <v>0.002099374200955697</v>
-      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>0.002195238609311242</v>
-      </c>
       <c r="C3">
-        <v>0.003918759090106298</v>
-      </c>
-      <c r="D3">
-        <v>0.0009009173630044999</v>
-      </c>
-      <c r="E3">
-        <v>0.001818285010063323</v>
-      </c>
-      <c r="F3">
-        <v>0.0008276389584920105</v>
-      </c>
-      <c r="G3">
-        <v>0.001031796895639472</v>
-      </c>
-      <c r="H3">
-        <v>0.0004843443036437689</v>
-      </c>
-      <c r="I3">
-        <v>0.002028012716214278</v>
-      </c>
-      <c r="J3">
-        <v>0.002300417765905387</v>
-      </c>
-      <c r="K3">
-        <v>0.001424273057337027</v>
-      </c>
-      <c r="L3">
-        <v>0.002905352160211054</v>
-      </c>
-      <c r="M3">
-        <v>0.00285314547205634</v>
-      </c>
-      <c r="N3">
-        <v>0.001704741832518333</v>
-      </c>
-      <c r="O3">
-        <v>0.001898391174446885</v>
-      </c>
-      <c r="P3">
-        <v>0.002190604711916668</v>
+        <v>0.0039187590901063</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0.0009508271235367424</v>
-      </c>
-      <c r="C4">
-        <v>0.0009009173630044999</v>
-      </c>
       <c r="D4">
-        <v>0.009106539813881582</v>
-      </c>
-      <c r="E4">
-        <v>0.002966600899854436</v>
-      </c>
-      <c r="F4">
-        <v>0.006476131695945264</v>
-      </c>
-      <c r="G4">
-        <v>0.001256086013183223</v>
-      </c>
-      <c r="H4">
-        <v>-1.814561350327905E-05</v>
-      </c>
-      <c r="I4">
-        <v>0.002132364428026505</v>
-      </c>
-      <c r="J4">
-        <v>0.001538416536541143</v>
-      </c>
-      <c r="K4">
-        <v>0.0003373076499939007</v>
-      </c>
-      <c r="L4">
-        <v>0.001770818879564759</v>
-      </c>
-      <c r="M4">
-        <v>0.002082293941032971</v>
-      </c>
-      <c r="N4">
-        <v>0.001890763227588479</v>
-      </c>
-      <c r="O4">
-        <v>0.001553527199984603</v>
-      </c>
-      <c r="P4">
-        <v>0.001705196996881233</v>
+        <v>0.00910653981388158</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>0.002338836173310498</v>
-      </c>
-      <c r="C5">
-        <v>0.001818285010063323</v>
-      </c>
-      <c r="D5">
-        <v>0.002966600899854436</v>
-      </c>
       <c r="E5">
         <v>0.008824560552946442</v>
-      </c>
-      <c r="F5">
-        <v>0.001936622646171507</v>
-      </c>
-      <c r="G5">
-        <v>0.001914460824646269</v>
-      </c>
-      <c r="H5">
-        <v>0.002237804612741065</v>
-      </c>
-      <c r="I5">
-        <v>0.003661248289263308</v>
-      </c>
-      <c r="J5">
-        <v>0.004294516084052455</v>
-      </c>
-      <c r="K5">
-        <v>0.001812782386042167</v>
-      </c>
-      <c r="L5">
-        <v>0.002967120915763853</v>
-      </c>
-      <c r="M5">
-        <v>0.002775298842993757</v>
-      </c>
-      <c r="N5">
-        <v>0.003580564132565855</v>
-      </c>
-      <c r="O5">
-        <v>0.002006803218084151</v>
-      </c>
-      <c r="P5">
-        <v>0.003500577841526782</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0.0004288730025838302</v>
-      </c>
-      <c r="C6">
-        <v>0.0008276389584920105</v>
-      </c>
-      <c r="D6">
-        <v>0.006476131695945264</v>
-      </c>
-      <c r="E6">
-        <v>0.001936622646171507</v>
-      </c>
       <c r="F6">
         <v>0.009056764301990842</v>
-      </c>
-      <c r="G6">
-        <v>-3.765543808643181E-05</v>
-      </c>
-      <c r="H6">
-        <v>0.0001348806577006714</v>
-      </c>
-      <c r="I6">
-        <v>0.001607731574041917</v>
-      </c>
-      <c r="J6">
-        <v>0.003262489564909498</v>
-      </c>
-      <c r="K6">
-        <v>0.0003205692153154983</v>
-      </c>
-      <c r="L6">
-        <v>0.001755439419245332</v>
-      </c>
-      <c r="M6">
-        <v>0.001952995928677345</v>
-      </c>
-      <c r="N6">
-        <v>0.001337546663196653</v>
-      </c>
-      <c r="O6">
-        <v>0.001198188463647075</v>
-      </c>
-      <c r="P6">
-        <v>0.001404292649683977</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>0.001271628224799166</v>
-      </c>
-      <c r="C7">
-        <v>0.001031796895639472</v>
-      </c>
-      <c r="D7">
-        <v>0.001256086013183223</v>
-      </c>
-      <c r="E7">
-        <v>0.001914460824646269</v>
-      </c>
-      <c r="F7">
-        <v>-3.765543808643181E-05</v>
-      </c>
       <c r="G7">
-        <v>0.001802651820327999</v>
-      </c>
-      <c r="H7">
-        <v>0.0004093221544258104</v>
-      </c>
-      <c r="I7">
-        <v>0.001775655725367358</v>
-      </c>
-      <c r="J7">
-        <v>0.001162354892705527</v>
-      </c>
-      <c r="K7">
-        <v>0.000731363653217108</v>
-      </c>
-      <c r="L7">
-        <v>0.001077541549454633</v>
-      </c>
-      <c r="M7">
-        <v>0.001210291120726767</v>
-      </c>
-      <c r="N7">
-        <v>0.001355878054341098</v>
-      </c>
-      <c r="O7">
-        <v>0.0010183675169333</v>
-      </c>
-      <c r="P7">
-        <v>0.001469292215790715</v>
+        <v>0.001802651820327998</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0.0006633438077657554</v>
-      </c>
-      <c r="C8">
-        <v>0.0004843443036437689</v>
-      </c>
-      <c r="D8">
-        <v>-1.814561350327905E-05</v>
-      </c>
-      <c r="E8">
-        <v>0.002237804612741065</v>
-      </c>
-      <c r="F8">
-        <v>0.0001348806577006714</v>
-      </c>
-      <c r="G8">
-        <v>0.0004093221544258104</v>
-      </c>
       <c r="H8">
         <v>0.001677743619745342</v>
-      </c>
-      <c r="I8">
-        <v>0.0008389746265843259</v>
-      </c>
-      <c r="J8">
-        <v>0.001007693401765632</v>
-      </c>
-      <c r="K8">
-        <v>0.0008271674714778152</v>
-      </c>
-      <c r="L8">
-        <v>0.0005399260615313292</v>
-      </c>
-      <c r="M8">
-        <v>0.0005501914699075353</v>
-      </c>
-      <c r="N8">
-        <v>0.001026676593567114</v>
-      </c>
-      <c r="O8">
-        <v>0.0006427648495228162</v>
-      </c>
-      <c r="P8">
-        <v>0.001024362248229401</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0.002303319912643955</v>
-      </c>
-      <c r="C9">
-        <v>0.002028012716214278</v>
-      </c>
-      <c r="D9">
-        <v>0.002132364428026505</v>
-      </c>
-      <c r="E9">
-        <v>0.003661248289263308</v>
-      </c>
-      <c r="F9">
-        <v>0.001607731574041917</v>
-      </c>
-      <c r="G9">
-        <v>0.001775655725367358</v>
-      </c>
-      <c r="H9">
-        <v>0.0008389746265843259</v>
-      </c>
       <c r="I9">
         <v>0.006354184517284547</v>
-      </c>
-      <c r="J9">
-        <v>0.0034891385865835</v>
-      </c>
-      <c r="K9">
-        <v>0.001556143576356016</v>
-      </c>
-      <c r="L9">
-        <v>0.002502912724478911</v>
-      </c>
-      <c r="M9">
-        <v>0.002107722627576082</v>
-      </c>
-      <c r="N9">
-        <v>0.002992222834191922</v>
-      </c>
-      <c r="O9">
-        <v>0.002200621799046567</v>
-      </c>
-      <c r="P9">
-        <v>0.00290160682972902</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>0.002246293589786045</v>
-      </c>
-      <c r="C10">
-        <v>0.002300417765905387</v>
-      </c>
-      <c r="D10">
-        <v>0.001538416536541143</v>
-      </c>
-      <c r="E10">
-        <v>0.004294516084052455</v>
-      </c>
-      <c r="F10">
-        <v>0.003262489564909498</v>
-      </c>
-      <c r="G10">
-        <v>0.001162354892705527</v>
-      </c>
-      <c r="H10">
-        <v>0.001007693401765632</v>
-      </c>
-      <c r="I10">
-        <v>0.0034891385865835</v>
-      </c>
       <c r="J10">
-        <v>0.008454994616666763</v>
-      </c>
-      <c r="K10">
-        <v>0.001551372155458889</v>
-      </c>
-      <c r="L10">
-        <v>0.003039435421228844</v>
-      </c>
-      <c r="M10">
-        <v>0.00263591199099268</v>
-      </c>
-      <c r="N10">
-        <v>0.003329980825059502</v>
-      </c>
-      <c r="O10">
-        <v>0.002760869985992579</v>
-      </c>
-      <c r="P10">
-        <v>0.003344325604910325</v>
+        <v>0.008454994616666768</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>0.001528551973223719</v>
-      </c>
-      <c r="C11">
-        <v>0.001424273057337027</v>
-      </c>
-      <c r="D11">
-        <v>0.0003373076499939007</v>
-      </c>
-      <c r="E11">
-        <v>0.001812782386042167</v>
-      </c>
-      <c r="F11">
-        <v>0.0003205692153154983</v>
-      </c>
-      <c r="G11">
-        <v>0.000731363653217108</v>
-      </c>
-      <c r="H11">
-        <v>0.0008271674714778152</v>
-      </c>
-      <c r="I11">
-        <v>0.001556143576356016</v>
-      </c>
-      <c r="J11">
-        <v>0.001551372155458889</v>
-      </c>
       <c r="K11">
         <v>0.002664782499680878</v>
-      </c>
-      <c r="L11">
-        <v>0.001676707756401058</v>
-      </c>
-      <c r="M11">
-        <v>0.001666345713796872</v>
-      </c>
-      <c r="N11">
-        <v>0.001390767111966256</v>
-      </c>
-      <c r="O11">
-        <v>0.0012514043875298</v>
-      </c>
-      <c r="P11">
-        <v>0.001447795903883444</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>0.002319173308375273</v>
-      </c>
-      <c r="C12">
-        <v>0.002905352160211054</v>
-      </c>
-      <c r="D12">
-        <v>0.001770818879564759</v>
-      </c>
-      <c r="E12">
-        <v>0.002967120915763853</v>
-      </c>
-      <c r="F12">
-        <v>0.001755439419245332</v>
-      </c>
-      <c r="G12">
-        <v>0.001077541549454633</v>
-      </c>
-      <c r="H12">
-        <v>0.0005399260615313292</v>
-      </c>
-      <c r="I12">
-        <v>0.002502912724478911</v>
-      </c>
-      <c r="J12">
-        <v>0.003039435421228844</v>
-      </c>
-      <c r="K12">
-        <v>0.001676707756401058</v>
-      </c>
       <c r="L12">
         <v>0.004382637538008115</v>
-      </c>
-      <c r="M12">
-        <v>0.002837424816670898</v>
-      </c>
-      <c r="N12">
-        <v>0.001841279849832741</v>
-      </c>
-      <c r="O12">
-        <v>0.001613918633691911</v>
-      </c>
-      <c r="P12">
-        <v>0.003006224177194876</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>0.002116183814790693</v>
-      </c>
-      <c r="C13">
-        <v>0.00285314547205634</v>
-      </c>
-      <c r="D13">
-        <v>0.002082293941032971</v>
-      </c>
-      <c r="E13">
-        <v>0.002775298842993757</v>
-      </c>
-      <c r="F13">
-        <v>0.001952995928677345</v>
-      </c>
-      <c r="G13">
-        <v>0.001210291120726767</v>
-      </c>
-      <c r="H13">
-        <v>0.0005501914699075353</v>
-      </c>
-      <c r="I13">
-        <v>0.002107722627576082</v>
-      </c>
-      <c r="J13">
-        <v>0.00263591199099268</v>
-      </c>
-      <c r="K13">
-        <v>0.001666345713796872</v>
-      </c>
-      <c r="L13">
-        <v>0.002837424816670898</v>
-      </c>
       <c r="M13">
         <v>0.0035669632265554</v>
-      </c>
-      <c r="N13">
-        <v>0.001904530175252687</v>
-      </c>
-      <c r="O13">
-        <v>0.001899257948553788</v>
-      </c>
-      <c r="P13">
-        <v>0.002566765603670629</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>0.001742982663940469</v>
-      </c>
-      <c r="C14">
-        <v>0.001704741832518333</v>
-      </c>
-      <c r="D14">
-        <v>0.001890763227588479</v>
-      </c>
-      <c r="E14">
-        <v>0.003580564132565855</v>
-      </c>
-      <c r="F14">
-        <v>0.001337546663196653</v>
-      </c>
-      <c r="G14">
-        <v>0.001355878054341098</v>
-      </c>
-      <c r="H14">
-        <v>0.001026676593567114</v>
-      </c>
-      <c r="I14">
-        <v>0.002992222834191922</v>
-      </c>
-      <c r="J14">
-        <v>0.003329980825059502</v>
-      </c>
-      <c r="K14">
-        <v>0.001390767111966256</v>
-      </c>
-      <c r="L14">
-        <v>0.001841279849832741</v>
-      </c>
-      <c r="M14">
-        <v>0.001904530175252687</v>
-      </c>
       <c r="N14">
-        <v>0.0047374708041913</v>
-      </c>
-      <c r="O14">
-        <v>0.002207522861051981</v>
-      </c>
-      <c r="P14">
-        <v>0.002505320863076815</v>
+        <v>0.004737470804191302</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
-        <v>0.00185050229244519</v>
-      </c>
-      <c r="C15">
-        <v>0.001898391174446885</v>
-      </c>
-      <c r="D15">
-        <v>0.001553527199984603</v>
-      </c>
-      <c r="E15">
-        <v>0.002006803218084151</v>
-      </c>
-      <c r="F15">
-        <v>0.001198188463647075</v>
-      </c>
-      <c r="G15">
-        <v>0.0010183675169333</v>
-      </c>
-      <c r="H15">
-        <v>0.0006427648495228162</v>
-      </c>
-      <c r="I15">
-        <v>0.002200621799046567</v>
-      </c>
-      <c r="J15">
-        <v>0.002760869985992579</v>
-      </c>
-      <c r="K15">
-        <v>0.0012514043875298</v>
-      </c>
-      <c r="L15">
-        <v>0.001613918633691911</v>
-      </c>
-      <c r="M15">
-        <v>0.001899257948553788</v>
-      </c>
-      <c r="N15">
-        <v>0.002207522861051981</v>
-      </c>
       <c r="O15">
-        <v>0.002934039472965449</v>
-      </c>
-      <c r="P15">
-        <v>0.002181259797765548</v>
+        <v>0.00293403947296545</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
-        <v>0.002099374200955697</v>
-      </c>
-      <c r="C16">
-        <v>0.002190604711916668</v>
-      </c>
-      <c r="D16">
-        <v>0.001705196996881233</v>
-      </c>
-      <c r="E16">
-        <v>0.003500577841526782</v>
-      </c>
-      <c r="F16">
-        <v>0.001404292649683977</v>
-      </c>
-      <c r="G16">
-        <v>0.001469292215790715</v>
-      </c>
-      <c r="H16">
-        <v>0.001024362248229401</v>
-      </c>
-      <c r="I16">
-        <v>0.00290160682972902</v>
-      </c>
-      <c r="J16">
-        <v>0.003344325604910325</v>
-      </c>
-      <c r="K16">
-        <v>0.001447795903883444</v>
-      </c>
-      <c r="L16">
-        <v>0.003006224177194876</v>
-      </c>
-      <c r="M16">
-        <v>0.002566765603670629</v>
-      </c>
-      <c r="N16">
-        <v>0.002505320863076815</v>
-      </c>
-      <c r="O16">
-        <v>0.002181259797765548</v>
-      </c>
       <c r="P16">
-        <v>0.0046715645871207</v>
+        <v>0.004671564587120701</v>
       </c>
     </row>
   </sheetData>
